--- a/Code/Data/Raw Data/Population/popbycountyandmuni.xlsx
+++ b/Code/Data/Raw Data/Population/popbycountyandmuni.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdegroen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armyt\Documents\CU Boulder\CSCI 4502\Project\Colorado-Wildfire-Prediction\Code\Data\Raw Data\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6950172-450D-4639-94CF-E7C408D85171}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2166,7 +2178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2428,23 +2440,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.15625" customWidth="1"/>
+    <col min="3" max="3" width="23.83984375" customWidth="1"/>
+    <col min="4" max="12" width="10.15625" customWidth="1"/>
+    <col min="13" max="13" width="9.15625" customWidth="1"/>
     <col min="14" max="21" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2469,7 +2481,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2518,7 +2530,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2567,7 +2579,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2590,7 +2602,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2639,7 +2651,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2688,7 +2700,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2737,7 +2749,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2786,7 +2798,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2835,7 +2847,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2884,7 +2896,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2933,7 +2945,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -2982,7 +2994,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -3031,7 +3043,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3080,7 +3092,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3129,7 +3141,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -3178,7 +3190,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3201,7 +3213,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -3250,7 +3262,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -3299,7 +3311,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -3348,7 +3360,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -3397,7 +3409,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3420,7 +3432,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -3469,7 +3481,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -3518,7 +3530,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -3567,7 +3579,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -3616,7 +3628,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -3665,7 +3677,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -3714,7 +3726,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -3763,7 +3775,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -3812,7 +3824,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -3861,7 +3873,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -3910,7 +3922,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -3959,7 +3971,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
@@ -4008,7 +4020,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -4057,7 +4069,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -4106,7 +4118,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -4155,7 +4167,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4178,7 +4190,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -4227,7 +4239,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -4276,7 +4288,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -4325,7 +4337,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4348,7 +4360,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
@@ -4397,7 +4409,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
@@ -4446,7 +4458,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
@@ -4495,7 +4507,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>75</v>
       </c>
@@ -4544,7 +4556,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>75</v>
       </c>
@@ -4593,7 +4605,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
@@ -4642,7 +4654,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
@@ -4691,7 +4703,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>75</v>
       </c>
@@ -4740,7 +4752,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4763,7 +4775,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>89</v>
       </c>
@@ -4812,7 +4824,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
@@ -4861,7 +4873,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
@@ -4910,7 +4922,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4933,7 +4945,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>93</v>
       </c>
@@ -4982,7 +4994,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -5031,7 +5043,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>93</v>
       </c>
@@ -5080,7 +5092,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>93</v>
       </c>
@@ -5129,7 +5141,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
@@ -5178,7 +5190,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>93</v>
       </c>
@@ -5227,7 +5239,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>93</v>
       </c>
@@ -5276,7 +5288,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>93</v>
       </c>
@@ -5325,7 +5337,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>93</v>
       </c>
@@ -5366,7 +5378,7 @@
         <v>1540</v>
       </c>
       <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
+      <c r="O64" s="3"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -5374,7 +5386,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>93</v>
       </c>
@@ -5423,7 +5435,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>93</v>
       </c>
@@ -5472,7 +5484,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>93</v>
       </c>
@@ -5521,7 +5533,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5544,7 +5556,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>115</v>
       </c>
@@ -5593,7 +5605,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>115</v>
       </c>
@@ -5642,7 +5654,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5665,7 +5677,7 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>119</v>
       </c>
@@ -5714,7 +5726,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>119</v>
       </c>
@@ -5763,7 +5775,7 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>119</v>
       </c>
@@ -5812,7 +5824,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>119</v>
       </c>
@@ -5861,7 +5873,7 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>119</v>
       </c>
@@ -5910,7 +5922,7 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5933,7 +5945,7 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>127</v>
       </c>
@@ -5982,7 +5994,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>127</v>
       </c>
@@ -6031,7 +6043,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>127</v>
       </c>
@@ -6080,7 +6092,7 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>127</v>
       </c>
@@ -6129,7 +6141,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6152,7 +6164,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>133</v>
       </c>
@@ -6201,7 +6213,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>133</v>
       </c>
@@ -6230,7 +6242,7 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>133</v>
       </c>
@@ -6279,7 +6291,7 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>133</v>
       </c>
@@ -6328,7 +6340,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>133</v>
       </c>
@@ -6377,7 +6389,7 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>133</v>
       </c>
@@ -6426,7 +6438,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>133</v>
       </c>
@@ -6475,7 +6487,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6498,7 +6510,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>145</v>
       </c>
@@ -6547,7 +6559,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>145</v>
       </c>
@@ -6596,7 +6608,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>145</v>
       </c>
@@ -6645,7 +6657,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>145</v>
       </c>
@@ -6694,7 +6706,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>145</v>
       </c>
@@ -6743,7 +6755,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>145</v>
       </c>
@@ -6792,7 +6804,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>145</v>
       </c>
@@ -6841,7 +6853,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6864,7 +6876,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>157</v>
       </c>
@@ -6913,7 +6925,7 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>157</v>
       </c>
@@ -6962,7 +6974,7 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>157</v>
       </c>
@@ -7011,7 +7023,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>157</v>
       </c>
@@ -7060,7 +7072,7 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7083,7 +7095,7 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>163</v>
       </c>
@@ -7132,7 +7144,7 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>163</v>
       </c>
@@ -7181,7 +7193,7 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
         <v>163</v>
       </c>
@@ -7230,7 +7242,7 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>163</v>
       </c>
@@ -7279,7 +7291,7 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>163</v>
       </c>
@@ -7328,7 +7340,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>163</v>
       </c>
@@ -7377,7 +7389,7 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7400,7 +7412,7 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>173</v>
       </c>
@@ -7449,7 +7461,7 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>173</v>
       </c>
@@ -7498,7 +7510,7 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>173</v>
       </c>
@@ -7547,7 +7559,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>173</v>
       </c>
@@ -7596,7 +7608,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7619,7 +7631,7 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>179</v>
       </c>
@@ -7668,7 +7680,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>179</v>
       </c>
@@ -7717,7 +7729,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
         <v>179</v>
       </c>
@@ -7766,7 +7778,7 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>179</v>
       </c>
@@ -7815,7 +7827,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>179</v>
       </c>
@@ -7864,7 +7876,7 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>179</v>
       </c>
@@ -7913,7 +7925,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>179</v>
       </c>
@@ -7962,7 +7974,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
         <v>179</v>
       </c>
@@ -8011,7 +8023,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8034,7 +8046,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>193</v>
       </c>
@@ -8083,7 +8095,7 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>193</v>
       </c>
@@ -8132,7 +8144,7 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8155,7 +8167,7 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
         <v>197</v>
       </c>
@@ -8204,7 +8216,7 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
         <v>197</v>
       </c>
@@ -8253,7 +8265,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
         <v>197</v>
       </c>
@@ -8302,7 +8314,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
         <v>197</v>
       </c>
@@ -8351,7 +8363,7 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8374,7 +8386,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
         <v>203</v>
       </c>
@@ -8423,7 +8435,7 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
         <v>203</v>
       </c>
@@ -8472,7 +8484,7 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>203</v>
       </c>
@@ -8521,7 +8533,7 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
         <v>203</v>
       </c>
@@ -8570,7 +8582,7 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
         <v>203</v>
       </c>
@@ -8619,7 +8631,7 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
         <v>203</v>
       </c>
@@ -8668,7 +8680,7 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
         <v>203</v>
       </c>
@@ -8717,7 +8729,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
         <v>203</v>
       </c>
@@ -8766,7 +8778,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
         <v>203</v>
       </c>
@@ -8815,7 +8827,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8838,7 +8850,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
         <v>215</v>
       </c>
@@ -8887,7 +8899,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>215</v>
       </c>
@@ -8936,7 +8948,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
         <v>215</v>
       </c>
@@ -8985,7 +8997,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
         <v>215</v>
       </c>
@@ -9034,7 +9046,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
         <v>215</v>
       </c>
@@ -9083,7 +9095,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
         <v>215</v>
       </c>
@@ -9132,7 +9144,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
         <v>215</v>
       </c>
@@ -9181,7 +9193,7 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
         <v>215</v>
       </c>
@@ -9230,7 +9242,7 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
         <v>215</v>
       </c>
@@ -9279,7 +9291,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
     </row>
-    <row r="152" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9302,7 +9314,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
     </row>
-    <row r="153" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
         <v>231</v>
       </c>
@@ -9351,7 +9363,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
         <v>231</v>
       </c>
@@ -9400,7 +9412,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
         <v>231</v>
       </c>
@@ -9449,7 +9461,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
         <v>231</v>
       </c>
@@ -9498,7 +9510,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
     </row>
-    <row r="157" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
         <v>231</v>
       </c>
@@ -9547,7 +9559,7 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
     </row>
-    <row r="158" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -9570,7 +9582,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
     </row>
-    <row r="159" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
         <v>239</v>
       </c>
@@ -9619,7 +9631,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
     </row>
-    <row r="160" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
         <v>239</v>
       </c>
@@ -9668,7 +9680,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
         <v>239</v>
       </c>
@@ -9717,7 +9729,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
     </row>
-    <row r="162" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
         <v>239</v>
       </c>
@@ -9766,7 +9778,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
     </row>
-    <row r="163" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
         <v>239</v>
       </c>
@@ -9815,7 +9827,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
     </row>
-    <row r="164" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
         <v>239</v>
       </c>
@@ -9864,7 +9876,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
     </row>
-    <row r="165" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
         <v>239</v>
       </c>
@@ -9913,7 +9925,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
         <v>239</v>
       </c>
@@ -9962,7 +9974,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
     </row>
-    <row r="167" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
         <v>239</v>
       </c>
@@ -10011,7 +10023,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
     </row>
-    <row r="168" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>239</v>
       </c>
@@ -10060,7 +10072,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
     </row>
-    <row r="169" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -10083,7 +10095,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
         <v>257</v>
       </c>
@@ -10132,7 +10144,7 @@
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
         <v>257</v>
       </c>
@@ -10181,7 +10193,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
         <v>257</v>
       </c>
@@ -10230,7 +10242,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
         <v>257</v>
       </c>
@@ -10279,7 +10291,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
         <v>257</v>
       </c>
@@ -10328,7 +10340,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
         <v>257</v>
       </c>
@@ -10377,7 +10389,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
         <v>257</v>
       </c>
@@ -10426,7 +10438,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
         <v>257</v>
       </c>
@@ -10475,7 +10487,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -10498,7 +10510,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
         <v>271</v>
       </c>
@@ -10547,7 +10559,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
     </row>
-    <row r="180" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1" t="s">
         <v>271</v>
       </c>
@@ -10596,7 +10608,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
     </row>
-    <row r="181" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1" t="s">
         <v>271</v>
       </c>
@@ -10625,7 +10637,7 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1" t="s">
         <v>271</v>
       </c>
@@ -10674,7 +10686,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
     </row>
-    <row r="183" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1" t="s">
         <v>271</v>
       </c>
@@ -10723,7 +10735,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
     </row>
-    <row r="184" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1" t="s">
         <v>271</v>
       </c>
@@ -10772,7 +10784,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
     </row>
-    <row r="185" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1" t="s">
         <v>271</v>
       </c>
@@ -10821,7 +10833,7 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
     </row>
-    <row r="186" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1" t="s">
         <v>271</v>
       </c>
@@ -10870,7 +10882,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
     </row>
-    <row r="187" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1" t="s">
         <v>271</v>
       </c>
@@ -10919,7 +10931,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
     </row>
-    <row r="188" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -10942,7 +10954,7 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
     </row>
-    <row r="189" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
         <v>287</v>
       </c>
@@ -10991,7 +11003,7 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
     </row>
-    <row r="190" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1" t="s">
         <v>287</v>
       </c>
@@ -11040,7 +11052,7 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
     </row>
-    <row r="191" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
         <v>287</v>
       </c>
@@ -11089,7 +11101,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
     </row>
-    <row r="192" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1" t="s">
         <v>287</v>
       </c>
@@ -11138,7 +11150,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
     </row>
-    <row r="193" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -11161,7 +11173,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
     </row>
-    <row r="194" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1" t="s">
         <v>291</v>
       </c>
@@ -11210,7 +11222,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
     </row>
-    <row r="195" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1" t="s">
         <v>291</v>
       </c>
@@ -11259,7 +11271,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
     </row>
-    <row r="196" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1" t="s">
         <v>291</v>
       </c>
@@ -11308,7 +11320,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
     </row>
-    <row r="197" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1" t="s">
         <v>291</v>
       </c>
@@ -11357,7 +11369,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
     </row>
-    <row r="198" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1" t="s">
         <v>291</v>
       </c>
@@ -11406,7 +11418,7 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
     </row>
-    <row r="199" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1" t="s">
         <v>291</v>
       </c>
@@ -11455,7 +11467,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
     </row>
-    <row r="200" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1" t="s">
         <v>291</v>
       </c>
@@ -11504,7 +11516,7 @@
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
     </row>
-    <row r="201" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1" t="s">
         <v>291</v>
       </c>
@@ -11553,7 +11565,7 @@
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
     </row>
-    <row r="202" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -11576,7 +11588,7 @@
       <c r="T202" s="1"/>
       <c r="U202" s="1"/>
     </row>
-    <row r="203" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1" t="s">
         <v>305</v>
       </c>
@@ -11625,7 +11637,7 @@
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
     </row>
-    <row r="204" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1" t="s">
         <v>305</v>
       </c>
@@ -11674,7 +11686,7 @@
       <c r="T204" s="1"/>
       <c r="U204" s="1"/>
     </row>
-    <row r="205" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1" t="s">
         <v>305</v>
       </c>
@@ -11723,7 +11735,7 @@
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
     </row>
-    <row r="206" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1" t="s">
         <v>305</v>
       </c>
@@ -11772,7 +11784,7 @@
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
     </row>
-    <row r="207" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1" t="s">
         <v>305</v>
       </c>
@@ -11821,7 +11833,7 @@
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
     </row>
-    <row r="208" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1" t="s">
         <v>305</v>
       </c>
@@ -11870,7 +11882,7 @@
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
     </row>
-    <row r="209" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1" t="s">
         <v>305</v>
       </c>
@@ -11919,7 +11931,7 @@
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
     </row>
-    <row r="210" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -11942,7 +11954,7 @@
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
     </row>
-    <row r="211" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1" t="s">
         <v>317</v>
       </c>
@@ -11991,7 +12003,7 @@
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
     </row>
-    <row r="212" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1" t="s">
         <v>317</v>
       </c>
@@ -12040,7 +12052,7 @@
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
     </row>
-    <row r="213" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1" t="s">
         <v>317</v>
       </c>
@@ -12089,7 +12101,7 @@
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
     </row>
-    <row r="214" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -12112,7 +12124,7 @@
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
     </row>
-    <row r="215" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1" t="s">
         <v>321</v>
       </c>
@@ -12161,7 +12173,7 @@
       <c r="T215" s="1"/>
       <c r="U215" s="1"/>
     </row>
-    <row r="216" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1" t="s">
         <v>321</v>
       </c>
@@ -12210,7 +12222,7 @@
       <c r="T216" s="1"/>
       <c r="U216" s="1"/>
     </row>
-    <row r="217" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1" t="s">
         <v>321</v>
       </c>
@@ -12259,7 +12271,7 @@
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
     </row>
-    <row r="218" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1" t="s">
         <v>321</v>
       </c>
@@ -12308,7 +12320,7 @@
       <c r="T218" s="1"/>
       <c r="U218" s="1"/>
     </row>
-    <row r="219" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -12331,7 +12343,7 @@
       <c r="T219" s="1"/>
       <c r="U219" s="1"/>
     </row>
-    <row r="220" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1" t="s">
         <v>327</v>
       </c>
@@ -12380,7 +12392,7 @@
       <c r="T220" s="1"/>
       <c r="U220" s="1"/>
     </row>
-    <row r="221" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1" t="s">
         <v>327</v>
       </c>
@@ -12429,7 +12441,7 @@
       <c r="T221" s="1"/>
       <c r="U221" s="1"/>
     </row>
-    <row r="222" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1" t="s">
         <v>327</v>
       </c>
@@ -12478,7 +12490,7 @@
       <c r="T222" s="1"/>
       <c r="U222" s="1"/>
     </row>
-    <row r="223" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -12501,7 +12513,7 @@
       <c r="T223" s="1"/>
       <c r="U223" s="1"/>
     </row>
-    <row r="224" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1" t="s">
         <v>331</v>
       </c>
@@ -12550,7 +12562,7 @@
       <c r="T224" s="1"/>
       <c r="U224" s="1"/>
     </row>
-    <row r="225" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1" t="s">
         <v>331</v>
       </c>
@@ -12599,7 +12611,7 @@
       <c r="T225" s="1"/>
       <c r="U225" s="1"/>
     </row>
-    <row r="226" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1" t="s">
         <v>331</v>
       </c>
@@ -12648,7 +12660,7 @@
       <c r="T226" s="1"/>
       <c r="U226" s="1"/>
     </row>
-    <row r="227" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1" t="s">
         <v>331</v>
       </c>
@@ -12697,7 +12709,7 @@
       <c r="T227" s="1"/>
       <c r="U227" s="1"/>
     </row>
-    <row r="228" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1" t="s">
         <v>331</v>
       </c>
@@ -12746,7 +12758,7 @@
       <c r="T228" s="1"/>
       <c r="U228" s="1"/>
     </row>
-    <row r="229" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1" t="s">
         <v>331</v>
       </c>
@@ -12795,7 +12807,7 @@
       <c r="T229" s="1"/>
       <c r="U229" s="1"/>
     </row>
-    <row r="230" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1" t="s">
         <v>331</v>
       </c>
@@ -12844,7 +12856,7 @@
       <c r="T230" s="1"/>
       <c r="U230" s="1"/>
     </row>
-    <row r="231" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1" t="s">
         <v>331</v>
       </c>
@@ -12893,7 +12905,7 @@
       <c r="T231" s="1"/>
       <c r="U231" s="1"/>
     </row>
-    <row r="232" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1" t="s">
         <v>331</v>
       </c>
@@ -12942,7 +12954,7 @@
       <c r="T232" s="1"/>
       <c r="U232" s="1"/>
     </row>
-    <row r="233" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1" t="s">
         <v>331</v>
       </c>
@@ -12991,7 +13003,7 @@
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
     </row>
-    <row r="234" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
         <v>331</v>
       </c>
@@ -13020,7 +13032,7 @@
       <c r="T234" s="1"/>
       <c r="U234" s="1"/>
     </row>
-    <row r="235" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1" t="s">
         <v>331</v>
       </c>
@@ -13069,7 +13081,7 @@
       <c r="T235" s="1"/>
       <c r="U235" s="1"/>
     </row>
-    <row r="236" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1" t="s">
         <v>331</v>
       </c>
@@ -13118,7 +13130,7 @@
       <c r="T236" s="1"/>
       <c r="U236" s="1"/>
     </row>
-    <row r="237" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1" t="s">
         <v>331</v>
       </c>
@@ -13167,7 +13179,7 @@
       <c r="T237" s="1"/>
       <c r="U237" s="1"/>
     </row>
-    <row r="238" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -13190,7 +13202,7 @@
       <c r="T238" s="1"/>
       <c r="U238" s="1"/>
     </row>
-    <row r="239" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1" t="s">
         <v>347</v>
       </c>
@@ -13239,7 +13251,7 @@
       <c r="T239" s="1"/>
       <c r="U239" s="1"/>
     </row>
-    <row r="240" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1" t="s">
         <v>347</v>
       </c>
@@ -13288,7 +13300,7 @@
       <c r="T240" s="1"/>
       <c r="U240" s="1"/>
     </row>
-    <row r="241" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1" t="s">
         <v>347</v>
       </c>
@@ -13337,7 +13349,7 @@
       <c r="T241" s="1"/>
       <c r="U241" s="1"/>
     </row>
-    <row r="242" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1" t="s">
         <v>347</v>
       </c>
@@ -13386,7 +13398,7 @@
       <c r="T242" s="1"/>
       <c r="U242" s="1"/>
     </row>
-    <row r="243" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1" t="s">
         <v>347</v>
       </c>
@@ -13435,7 +13447,7 @@
       <c r="T243" s="1"/>
       <c r="U243" s="1"/>
     </row>
-    <row r="244" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -13458,7 +13470,7 @@
       <c r="T244" s="1"/>
       <c r="U244" s="1"/>
     </row>
-    <row r="245" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1" t="s">
         <v>355</v>
       </c>
@@ -13507,7 +13519,7 @@
       <c r="T245" s="1"/>
       <c r="U245" s="1"/>
     </row>
-    <row r="246" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1" t="s">
         <v>355</v>
       </c>
@@ -13556,7 +13568,7 @@
       <c r="T246" s="1"/>
       <c r="U246" s="1"/>
     </row>
-    <row r="247" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1" t="s">
         <v>355</v>
       </c>
@@ -13605,7 +13617,7 @@
       <c r="T247" s="1"/>
       <c r="U247" s="1"/>
     </row>
-    <row r="248" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1" t="s">
         <v>355</v>
       </c>
@@ -13654,7 +13666,7 @@
       <c r="T248" s="1"/>
       <c r="U248" s="1"/>
     </row>
-    <row r="249" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1" t="s">
         <v>355</v>
       </c>
@@ -13703,7 +13715,7 @@
       <c r="T249" s="1"/>
       <c r="U249" s="1"/>
     </row>
-    <row r="250" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1" t="s">
         <v>355</v>
       </c>
@@ -13752,7 +13764,7 @@
       <c r="T250" s="1"/>
       <c r="U250" s="1"/>
     </row>
-    <row r="251" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1" t="s">
         <v>355</v>
       </c>
@@ -13801,7 +13813,7 @@
       <c r="T251" s="1"/>
       <c r="U251" s="1"/>
     </row>
-    <row r="252" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1" t="s">
         <v>355</v>
       </c>
@@ -13850,7 +13862,7 @@
       <c r="T252" s="1"/>
       <c r="U252" s="1"/>
     </row>
-    <row r="253" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -13873,7 +13885,7 @@
       <c r="T253" s="1"/>
       <c r="U253" s="1"/>
     </row>
-    <row r="254" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1" t="s">
         <v>369</v>
       </c>
@@ -13922,7 +13934,7 @@
       <c r="T254" s="1"/>
       <c r="U254" s="1"/>
     </row>
-    <row r="255" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1" t="s">
         <v>369</v>
       </c>
@@ -13971,7 +13983,7 @@
       <c r="T255" s="1"/>
       <c r="U255" s="1"/>
     </row>
-    <row r="256" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1" t="s">
         <v>369</v>
       </c>
@@ -14020,7 +14032,7 @@
       <c r="T256" s="1"/>
       <c r="U256" s="1"/>
     </row>
-    <row r="257" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -14043,7 +14055,7 @@
       <c r="T257" s="1"/>
       <c r="U257" s="1"/>
     </row>
-    <row r="258" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1" t="s">
         <v>373</v>
       </c>
@@ -14092,7 +14104,7 @@
       <c r="T258" s="1"/>
       <c r="U258" s="1"/>
     </row>
-    <row r="259" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1" t="s">
         <v>373</v>
       </c>
@@ -14141,7 +14153,7 @@
       <c r="T259" s="1"/>
       <c r="U259" s="1"/>
     </row>
-    <row r="260" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1" t="s">
         <v>373</v>
       </c>
@@ -14190,7 +14202,7 @@
       <c r="T260" s="1"/>
       <c r="U260" s="1"/>
     </row>
-    <row r="261" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1" t="s">
         <v>373</v>
       </c>
@@ -14239,7 +14251,7 @@
       <c r="T261" s="1"/>
       <c r="U261" s="1"/>
     </row>
-    <row r="262" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1" t="s">
         <v>373</v>
       </c>
@@ -14288,7 +14300,7 @@
       <c r="T262" s="1"/>
       <c r="U262" s="1"/>
     </row>
-    <row r="263" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -14311,7 +14323,7 @@
       <c r="T263" s="1"/>
       <c r="U263" s="1"/>
     </row>
-    <row r="264" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1" t="s">
         <v>381</v>
       </c>
@@ -14360,7 +14372,7 @@
       <c r="T264" s="1"/>
       <c r="U264" s="1"/>
     </row>
-    <row r="265" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1" t="s">
         <v>381</v>
       </c>
@@ -14409,7 +14421,7 @@
       <c r="T265" s="1"/>
       <c r="U265" s="1"/>
     </row>
-    <row r="266" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1" t="s">
         <v>381</v>
       </c>
@@ -14458,7 +14470,7 @@
       <c r="T266" s="1"/>
       <c r="U266" s="1"/>
     </row>
-    <row r="267" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1" t="s">
         <v>381</v>
       </c>
@@ -14507,7 +14519,7 @@
       <c r="T267" s="1"/>
       <c r="U267" s="1"/>
     </row>
-    <row r="268" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1" t="s">
         <v>381</v>
       </c>
@@ -14556,7 +14568,7 @@
       <c r="T268" s="1"/>
       <c r="U268" s="1"/>
     </row>
-    <row r="269" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1" t="s">
         <v>381</v>
       </c>
@@ -14605,7 +14617,7 @@
       <c r="T269" s="1"/>
       <c r="U269" s="1"/>
     </row>
-    <row r="270" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1" t="s">
         <v>381</v>
       </c>
@@ -14654,7 +14666,7 @@
       <c r="T270" s="1"/>
       <c r="U270" s="1"/>
     </row>
-    <row r="271" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1" t="s">
         <v>381</v>
       </c>
@@ -14703,7 +14715,7 @@
       <c r="T271" s="1"/>
       <c r="U271" s="1"/>
     </row>
-    <row r="272" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1" t="s">
         <v>381</v>
       </c>
@@ -14752,7 +14764,7 @@
       <c r="T272" s="1"/>
       <c r="U272" s="1"/>
     </row>
-    <row r="273" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1" t="s">
         <v>381</v>
       </c>
@@ -14801,7 +14813,7 @@
       <c r="T273" s="1"/>
       <c r="U273" s="1"/>
     </row>
-    <row r="274" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -14824,7 +14836,7 @@
       <c r="T274" s="1"/>
       <c r="U274" s="1"/>
     </row>
-    <row r="275" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1" t="s">
         <v>399</v>
       </c>
@@ -14873,7 +14885,7 @@
       <c r="T275" s="1"/>
       <c r="U275" s="1"/>
     </row>
-    <row r="276" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1" t="s">
         <v>399</v>
       </c>
@@ -14922,7 +14934,7 @@
       <c r="T276" s="1"/>
       <c r="U276" s="1"/>
     </row>
-    <row r="277" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1" t="s">
         <v>399</v>
       </c>
@@ -14971,7 +14983,7 @@
       <c r="T277" s="1"/>
       <c r="U277" s="1"/>
     </row>
-    <row r="278" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1" t="s">
         <v>399</v>
       </c>
@@ -15020,7 +15032,7 @@
       <c r="T278" s="1"/>
       <c r="U278" s="1"/>
     </row>
-    <row r="279" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1" t="s">
         <v>399</v>
       </c>
@@ -15069,7 +15081,7 @@
       <c r="T279" s="1"/>
       <c r="U279" s="1"/>
     </row>
-    <row r="280" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1" t="s">
         <v>399</v>
       </c>
@@ -15118,7 +15130,7 @@
       <c r="T280" s="1"/>
       <c r="U280" s="1"/>
     </row>
-    <row r="281" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1" t="s">
         <v>399</v>
       </c>
@@ -15167,7 +15179,7 @@
       <c r="T281" s="1"/>
       <c r="U281" s="1"/>
     </row>
-    <row r="282" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1" t="s">
         <v>399</v>
       </c>
@@ -15216,7 +15228,7 @@
       <c r="T282" s="1"/>
       <c r="U282" s="1"/>
     </row>
-    <row r="283" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -15239,7 +15251,7 @@
       <c r="T283" s="1"/>
       <c r="U283" s="1"/>
     </row>
-    <row r="284" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1" t="s">
         <v>413</v>
       </c>
@@ -15288,7 +15300,7 @@
       <c r="T284" s="1"/>
       <c r="U284" s="1"/>
     </row>
-    <row r="285" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1" t="s">
         <v>413</v>
       </c>
@@ -15337,7 +15349,7 @@
       <c r="T285" s="1"/>
       <c r="U285" s="1"/>
     </row>
-    <row r="286" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1" t="s">
         <v>413</v>
       </c>
@@ -15386,7 +15398,7 @@
       <c r="T286" s="1"/>
       <c r="U286" s="1"/>
     </row>
-    <row r="287" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1" t="s">
         <v>413</v>
       </c>
@@ -15435,7 +15447,7 @@
       <c r="T287" s="1"/>
       <c r="U287" s="1"/>
     </row>
-    <row r="288" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1" t="s">
         <v>413</v>
       </c>
@@ -15484,7 +15496,7 @@
       <c r="T288" s="1"/>
       <c r="U288" s="1"/>
     </row>
-    <row r="289" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1" t="s">
         <v>413</v>
       </c>
@@ -15533,7 +15545,7 @@
       <c r="T289" s="1"/>
       <c r="U289" s="1"/>
     </row>
-    <row r="290" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -15556,7 +15568,7 @@
       <c r="T290" s="1"/>
       <c r="U290" s="1"/>
     </row>
-    <row r="291" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1" t="s">
         <v>423</v>
       </c>
@@ -15605,7 +15617,7 @@
       <c r="T291" s="1"/>
       <c r="U291" s="1"/>
     </row>
-    <row r="292" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1" t="s">
         <v>423</v>
       </c>
@@ -15654,7 +15666,7 @@
       <c r="T292" s="1"/>
       <c r="U292" s="1"/>
     </row>
-    <row r="293" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1" t="s">
         <v>423</v>
       </c>
@@ -15703,7 +15715,7 @@
       <c r="T293" s="1"/>
       <c r="U293" s="1"/>
     </row>
-    <row r="294" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1" t="s">
         <v>423</v>
       </c>
@@ -15752,7 +15764,7 @@
       <c r="T294" s="1"/>
       <c r="U294" s="1"/>
     </row>
-    <row r="295" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1" t="s">
         <v>423</v>
       </c>
@@ -15801,7 +15813,7 @@
       <c r="T295" s="1"/>
       <c r="U295" s="1"/>
     </row>
-    <row r="296" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1" t="s">
         <v>423</v>
       </c>
@@ -15850,7 +15862,7 @@
       <c r="T296" s="1"/>
       <c r="U296" s="1"/>
     </row>
-    <row r="297" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1" t="s">
         <v>423</v>
       </c>
@@ -15899,7 +15911,7 @@
       <c r="T297" s="1"/>
       <c r="U297" s="1"/>
     </row>
-    <row r="298" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1" t="s">
         <v>423</v>
       </c>
@@ -15948,7 +15960,7 @@
       <c r="T298" s="1"/>
       <c r="U298" s="1"/>
     </row>
-    <row r="299" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -15971,7 +15983,7 @@
       <c r="T299" s="1"/>
       <c r="U299" s="1"/>
     </row>
-    <row r="300" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1" t="s">
         <v>437</v>
       </c>
@@ -16020,7 +16032,7 @@
       <c r="T300" s="1"/>
       <c r="U300" s="1"/>
     </row>
-    <row r="301" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1" t="s">
         <v>437</v>
       </c>
@@ -16069,7 +16081,7 @@
       <c r="T301" s="1"/>
       <c r="U301" s="1"/>
     </row>
-    <row r="302" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1" t="s">
         <v>437</v>
       </c>
@@ -16118,7 +16130,7 @@
       <c r="T302" s="1"/>
       <c r="U302" s="1"/>
     </row>
-    <row r="303" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1" t="s">
         <v>437</v>
       </c>
@@ -16167,7 +16179,7 @@
       <c r="T303" s="1"/>
       <c r="U303" s="1"/>
     </row>
-    <row r="304" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1" t="s">
         <v>437</v>
       </c>
@@ -16216,7 +16228,7 @@
       <c r="T304" s="1"/>
       <c r="U304" s="1"/>
     </row>
-    <row r="305" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1" t="s">
         <v>437</v>
       </c>
@@ -16265,7 +16277,7 @@
       <c r="T305" s="1"/>
       <c r="U305" s="1"/>
     </row>
-    <row r="306" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1" t="s">
         <v>437</v>
       </c>
@@ -16314,7 +16326,7 @@
       <c r="T306" s="1"/>
       <c r="U306" s="1"/>
     </row>
-    <row r="307" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -16337,7 +16349,7 @@
       <c r="T307" s="1"/>
       <c r="U307" s="1"/>
     </row>
-    <row r="308" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1" t="s">
         <v>449</v>
       </c>
@@ -16386,7 +16398,7 @@
       <c r="T308" s="1"/>
       <c r="U308" s="1"/>
     </row>
-    <row r="309" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1" t="s">
         <v>449</v>
       </c>
@@ -16435,7 +16447,7 @@
       <c r="T309" s="1"/>
       <c r="U309" s="1"/>
     </row>
-    <row r="310" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1" t="s">
         <v>449</v>
       </c>
@@ -16484,7 +16496,7 @@
       <c r="T310" s="1"/>
       <c r="U310" s="1"/>
     </row>
-    <row r="311" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -16507,7 +16519,7 @@
       <c r="T311" s="1"/>
       <c r="U311" s="1"/>
     </row>
-    <row r="312" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1" t="s">
         <v>453</v>
       </c>
@@ -16556,7 +16568,7 @@
       <c r="T312" s="1"/>
       <c r="U312" s="1"/>
     </row>
-    <row r="313" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1" t="s">
         <v>453</v>
       </c>
@@ -16605,7 +16617,7 @@
       <c r="T313" s="1"/>
       <c r="U313" s="1"/>
     </row>
-    <row r="314" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1" t="s">
         <v>453</v>
       </c>
@@ -16654,7 +16666,7 @@
       <c r="T314" s="1"/>
       <c r="U314" s="1"/>
     </row>
-    <row r="315" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1" t="s">
         <v>453</v>
       </c>
@@ -16703,7 +16715,7 @@
       <c r="T315" s="1"/>
       <c r="U315" s="1"/>
     </row>
-    <row r="316" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -16726,7 +16738,7 @@
       <c r="T316" s="1"/>
       <c r="U316" s="1"/>
     </row>
-    <row r="317" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1" t="s">
         <v>459</v>
       </c>
@@ -16775,7 +16787,7 @@
       <c r="T317" s="1"/>
       <c r="U317" s="1"/>
     </row>
-    <row r="318" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1" t="s">
         <v>459</v>
       </c>
@@ -16824,7 +16836,7 @@
       <c r="T318" s="1"/>
       <c r="U318" s="1"/>
     </row>
-    <row r="319" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1" t="s">
         <v>459</v>
       </c>
@@ -16873,7 +16885,7 @@
       <c r="T319" s="1"/>
       <c r="U319" s="1"/>
     </row>
-    <row r="320" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1" t="s">
         <v>459</v>
       </c>
@@ -16922,7 +16934,7 @@
       <c r="T320" s="1"/>
       <c r="U320" s="1"/>
     </row>
-    <row r="321" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1" t="s">
         <v>459</v>
       </c>
@@ -16971,7 +16983,7 @@
       <c r="T321" s="1"/>
       <c r="U321" s="1"/>
     </row>
-    <row r="322" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -16994,7 +17006,7 @@
       <c r="T322" s="1"/>
       <c r="U322" s="1"/>
     </row>
-    <row r="323" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1" t="s">
         <v>467</v>
       </c>
@@ -17043,7 +17055,7 @@
       <c r="T323" s="1"/>
       <c r="U323" s="1"/>
     </row>
-    <row r="324" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1" t="s">
         <v>467</v>
       </c>
@@ -17092,7 +17104,7 @@
       <c r="T324" s="1"/>
       <c r="U324" s="1"/>
     </row>
-    <row r="325" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1" t="s">
         <v>467</v>
       </c>
@@ -17141,7 +17153,7 @@
       <c r="T325" s="1"/>
       <c r="U325" s="1"/>
     </row>
-    <row r="326" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1" t="s">
         <v>467</v>
       </c>
@@ -17190,7 +17202,7 @@
       <c r="T326" s="1"/>
       <c r="U326" s="1"/>
     </row>
-    <row r="327" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1" t="s">
         <v>467</v>
       </c>
@@ -17239,7 +17251,7 @@
       <c r="T327" s="1"/>
       <c r="U327" s="1"/>
     </row>
-    <row r="328" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1" t="s">
         <v>467</v>
       </c>
@@ -17288,7 +17300,7 @@
       <c r="T328" s="1"/>
       <c r="U328" s="1"/>
     </row>
-    <row r="329" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -17311,7 +17323,7 @@
       <c r="T329" s="1"/>
       <c r="U329" s="1"/>
     </row>
-    <row r="330" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1" t="s">
         <v>477</v>
       </c>
@@ -17360,7 +17372,7 @@
       <c r="T330" s="1"/>
       <c r="U330" s="1"/>
     </row>
-    <row r="331" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1" t="s">
         <v>477</v>
       </c>
@@ -17409,7 +17421,7 @@
       <c r="T331" s="1"/>
       <c r="U331" s="1"/>
     </row>
-    <row r="332" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1" t="s">
         <v>477</v>
       </c>
@@ -17458,7 +17470,7 @@
       <c r="T332" s="1"/>
       <c r="U332" s="1"/>
     </row>
-    <row r="333" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1" t="s">
         <v>477</v>
       </c>
@@ -17507,7 +17519,7 @@
       <c r="T333" s="1"/>
       <c r="U333" s="1"/>
     </row>
-    <row r="334" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1" t="s">
         <v>477</v>
       </c>
@@ -17556,7 +17568,7 @@
       <c r="T334" s="1"/>
       <c r="U334" s="1"/>
     </row>
-    <row r="335" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1" t="s">
         <v>477</v>
       </c>
@@ -17605,7 +17617,7 @@
       <c r="T335" s="1"/>
       <c r="U335" s="1"/>
     </row>
-    <row r="336" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1" t="s">
         <v>477</v>
       </c>
@@ -17654,7 +17666,7 @@
       <c r="T336" s="1"/>
       <c r="U336" s="1"/>
     </row>
-    <row r="337" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -17677,7 +17689,7 @@
       <c r="T337" s="1"/>
       <c r="U337" s="1"/>
     </row>
-    <row r="338" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1" t="s">
         <v>489</v>
       </c>
@@ -17726,7 +17738,7 @@
       <c r="T338" s="1"/>
       <c r="U338" s="1"/>
     </row>
-    <row r="339" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1" t="s">
         <v>489</v>
       </c>
@@ -17775,7 +17787,7 @@
       <c r="T339" s="1"/>
       <c r="U339" s="1"/>
     </row>
-    <row r="340" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1" t="s">
         <v>489</v>
       </c>
@@ -17824,7 +17836,7 @@
       <c r="T340" s="1"/>
       <c r="U340" s="1"/>
     </row>
-    <row r="341" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1" t="s">
         <v>489</v>
       </c>
@@ -17873,7 +17885,7 @@
       <c r="T341" s="1"/>
       <c r="U341" s="1"/>
     </row>
-    <row r="342" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1" t="s">
         <v>489</v>
       </c>
@@ -17922,7 +17934,7 @@
       <c r="T342" s="1"/>
       <c r="U342" s="1"/>
     </row>
-    <row r="343" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1" t="s">
         <v>489</v>
       </c>
@@ -17971,7 +17983,7 @@
       <c r="T343" s="1"/>
       <c r="U343" s="1"/>
     </row>
-    <row r="344" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1" t="s">
         <v>489</v>
       </c>
@@ -18020,7 +18032,7 @@
       <c r="T344" s="1"/>
       <c r="U344" s="1"/>
     </row>
-    <row r="345" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1" t="s">
         <v>489</v>
       </c>
@@ -18069,7 +18081,7 @@
       <c r="T345" s="1"/>
       <c r="U345" s="1"/>
     </row>
-    <row r="346" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -18092,7 +18104,7 @@
       <c r="T346" s="1"/>
       <c r="U346" s="1"/>
     </row>
-    <row r="347" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1" t="s">
         <v>503</v>
       </c>
@@ -18141,7 +18153,7 @@
       <c r="T347" s="1"/>
       <c r="U347" s="1"/>
     </row>
-    <row r="348" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1" t="s">
         <v>503</v>
       </c>
@@ -18190,7 +18202,7 @@
       <c r="T348" s="1"/>
       <c r="U348" s="1"/>
     </row>
-    <row r="349" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1" t="s">
         <v>503</v>
       </c>
@@ -18239,7 +18251,7 @@
       <c r="T349" s="1"/>
       <c r="U349" s="1"/>
     </row>
-    <row r="350" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1" t="s">
         <v>503</v>
       </c>
@@ -18288,7 +18300,7 @@
       <c r="T350" s="1"/>
       <c r="U350" s="1"/>
     </row>
-    <row r="351" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -18311,7 +18323,7 @@
       <c r="T351" s="1"/>
       <c r="U351" s="1"/>
     </row>
-    <row r="352" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1" t="s">
         <v>509</v>
       </c>
@@ -18360,7 +18372,7 @@
       <c r="T352" s="1"/>
       <c r="U352" s="1"/>
     </row>
-    <row r="353" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1" t="s">
         <v>509</v>
       </c>
@@ -18409,7 +18421,7 @@
       <c r="T353" s="1"/>
       <c r="U353" s="1"/>
     </row>
-    <row r="354" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1" t="s">
         <v>509</v>
       </c>
@@ -18458,7 +18470,7 @@
       <c r="T354" s="1"/>
       <c r="U354" s="1"/>
     </row>
-    <row r="355" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1" t="s">
         <v>509</v>
       </c>
@@ -18507,7 +18519,7 @@
       <c r="T355" s="1"/>
       <c r="U355" s="1"/>
     </row>
-    <row r="356" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -18530,7 +18542,7 @@
       <c r="T356" s="1"/>
       <c r="U356" s="1"/>
     </row>
-    <row r="357" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1" t="s">
         <v>515</v>
       </c>
@@ -18579,7 +18591,7 @@
       <c r="T357" s="1"/>
       <c r="U357" s="1"/>
     </row>
-    <row r="358" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1" t="s">
         <v>515</v>
       </c>
@@ -18628,7 +18640,7 @@
       <c r="T358" s="1"/>
       <c r="U358" s="1"/>
     </row>
-    <row r="359" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1" t="s">
         <v>515</v>
       </c>
@@ -18677,7 +18689,7 @@
       <c r="T359" s="1"/>
       <c r="U359" s="1"/>
     </row>
-    <row r="360" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1" t="s">
         <v>515</v>
       </c>
@@ -18726,7 +18738,7 @@
       <c r="T360" s="1"/>
       <c r="U360" s="1"/>
     </row>
-    <row r="361" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1" t="s">
         <v>515</v>
       </c>
@@ -18775,7 +18787,7 @@
       <c r="T361" s="1"/>
       <c r="U361" s="1"/>
     </row>
-    <row r="362" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -18798,7 +18810,7 @@
       <c r="T362" s="1"/>
       <c r="U362" s="1"/>
     </row>
-    <row r="363" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1" t="s">
         <v>523</v>
       </c>
@@ -18847,7 +18859,7 @@
       <c r="T363" s="1"/>
       <c r="U363" s="1"/>
     </row>
-    <row r="364" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1" t="s">
         <v>523</v>
       </c>
@@ -18896,7 +18908,7 @@
       <c r="T364" s="1"/>
       <c r="U364" s="1"/>
     </row>
-    <row r="365" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1" t="s">
         <v>523</v>
       </c>
@@ -18945,7 +18957,7 @@
       <c r="T365" s="1"/>
       <c r="U365" s="1"/>
     </row>
-    <row r="366" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1" t="s">
         <v>523</v>
       </c>
@@ -18994,7 +19006,7 @@
       <c r="T366" s="1"/>
       <c r="U366" s="1"/>
     </row>
-    <row r="367" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1" t="s">
         <v>523</v>
       </c>
@@ -19043,7 +19055,7 @@
       <c r="T367" s="1"/>
       <c r="U367" s="1"/>
     </row>
-    <row r="368" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -19066,7 +19078,7 @@
       <c r="T368" s="1"/>
       <c r="U368" s="1"/>
     </row>
-    <row r="369" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1" t="s">
         <v>529</v>
       </c>
@@ -19115,7 +19127,7 @@
       <c r="T369" s="1"/>
       <c r="U369" s="1"/>
     </row>
-    <row r="370" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1" t="s">
         <v>529</v>
       </c>
@@ -19164,7 +19176,7 @@
       <c r="T370" s="1"/>
       <c r="U370" s="1"/>
     </row>
-    <row r="371" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1" t="s">
         <v>529</v>
       </c>
@@ -19213,7 +19225,7 @@
       <c r="T371" s="1"/>
       <c r="U371" s="1"/>
     </row>
-    <row r="372" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1" t="s">
         <v>529</v>
       </c>
@@ -19262,7 +19274,7 @@
       <c r="T372" s="1"/>
       <c r="U372" s="1"/>
     </row>
-    <row r="373" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1" t="s">
         <v>529</v>
       </c>
@@ -19311,7 +19323,7 @@
       <c r="T373" s="1"/>
       <c r="U373" s="1"/>
     </row>
-    <row r="374" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1" t="s">
         <v>529</v>
       </c>
@@ -19360,7 +19372,7 @@
       <c r="T374" s="1"/>
       <c r="U374" s="1"/>
     </row>
-    <row r="375" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1" t="s">
         <v>529</v>
       </c>
@@ -19409,7 +19421,7 @@
       <c r="T375" s="1"/>
       <c r="U375" s="1"/>
     </row>
-    <row r="376" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -19432,7 +19444,7 @@
       <c r="T376" s="1"/>
       <c r="U376" s="1"/>
     </row>
-    <row r="377" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1" t="s">
         <v>541</v>
       </c>
@@ -19481,7 +19493,7 @@
       <c r="T377" s="1"/>
       <c r="U377" s="1"/>
     </row>
-    <row r="378" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1" t="s">
         <v>541</v>
       </c>
@@ -19530,7 +19542,7 @@
       <c r="T378" s="1"/>
       <c r="U378" s="1"/>
     </row>
-    <row r="379" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1" t="s">
         <v>541</v>
       </c>
@@ -19579,7 +19591,7 @@
       <c r="T379" s="1"/>
       <c r="U379" s="1"/>
     </row>
-    <row r="380" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1" t="s">
         <v>541</v>
       </c>
@@ -19628,7 +19640,7 @@
       <c r="T380" s="1"/>
       <c r="U380" s="1"/>
     </row>
-    <row r="381" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1" t="s">
         <v>541</v>
       </c>
@@ -19677,7 +19689,7 @@
       <c r="T381" s="1"/>
       <c r="U381" s="1"/>
     </row>
-    <row r="382" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -19700,7 +19712,7 @@
       <c r="T382" s="1"/>
       <c r="U382" s="1"/>
     </row>
-    <row r="383" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1" t="s">
         <v>549</v>
       </c>
@@ -19749,7 +19761,7 @@
       <c r="T383" s="1"/>
       <c r="U383" s="1"/>
     </row>
-    <row r="384" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1" t="s">
         <v>549</v>
       </c>
@@ -19798,7 +19810,7 @@
       <c r="T384" s="1"/>
       <c r="U384" s="1"/>
     </row>
-    <row r="385" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1" t="s">
         <v>549</v>
       </c>
@@ -19847,7 +19859,7 @@
       <c r="T385" s="1"/>
       <c r="U385" s="1"/>
     </row>
-    <row r="386" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1" t="s">
         <v>549</v>
       </c>
@@ -19896,7 +19908,7 @@
       <c r="T386" s="1"/>
       <c r="U386" s="1"/>
     </row>
-    <row r="387" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -19919,7 +19931,7 @@
       <c r="T387" s="1"/>
       <c r="U387" s="1"/>
     </row>
-    <row r="388" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1" t="s">
         <v>555</v>
       </c>
@@ -19968,7 +19980,7 @@
       <c r="T388" s="1"/>
       <c r="U388" s="1"/>
     </row>
-    <row r="389" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1" t="s">
         <v>555</v>
       </c>
@@ -20017,7 +20029,7 @@
       <c r="T389" s="1"/>
       <c r="U389" s="1"/>
     </row>
-    <row r="390" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1" t="s">
         <v>555</v>
       </c>
@@ -20066,7 +20078,7 @@
       <c r="T390" s="1"/>
       <c r="U390" s="1"/>
     </row>
-    <row r="391" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1" t="s">
         <v>555</v>
       </c>
@@ -20115,7 +20127,7 @@
       <c r="T391" s="1"/>
       <c r="U391" s="1"/>
     </row>
-    <row r="392" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1" t="s">
         <v>555</v>
       </c>
@@ -20164,7 +20176,7 @@
       <c r="T392" s="1"/>
       <c r="U392" s="1"/>
     </row>
-    <row r="393" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1" t="s">
         <v>555</v>
       </c>
@@ -20213,7 +20225,7 @@
       <c r="T393" s="1"/>
       <c r="U393" s="1"/>
     </row>
-    <row r="394" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -20236,7 +20248,7 @@
       <c r="T394" s="1"/>
       <c r="U394" s="1"/>
     </row>
-    <row r="395" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1" t="s">
         <v>565</v>
       </c>
@@ -20285,7 +20297,7 @@
       <c r="T395" s="1"/>
       <c r="U395" s="1"/>
     </row>
-    <row r="396" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1" t="s">
         <v>565</v>
       </c>
@@ -20334,7 +20346,7 @@
       <c r="T396" s="1"/>
       <c r="U396" s="1"/>
     </row>
-    <row r="397" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1" t="s">
         <v>565</v>
       </c>
@@ -20383,7 +20395,7 @@
       <c r="T397" s="1"/>
       <c r="U397" s="1"/>
     </row>
-    <row r="398" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1" t="s">
         <v>565</v>
       </c>
@@ -20432,7 +20444,7 @@
       <c r="T398" s="1"/>
       <c r="U398" s="1"/>
     </row>
-    <row r="399" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1" t="s">
         <v>565</v>
       </c>
@@ -20481,7 +20493,7 @@
       <c r="T399" s="1"/>
       <c r="U399" s="1"/>
     </row>
-    <row r="400" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1" t="s">
         <v>565</v>
       </c>
@@ -20530,7 +20542,7 @@
       <c r="T400" s="1"/>
       <c r="U400" s="1"/>
     </row>
-    <row r="401" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -20553,7 +20565,7 @@
       <c r="T401" s="1"/>
       <c r="U401" s="1"/>
     </row>
-    <row r="402" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1" t="s">
         <v>575</v>
       </c>
@@ -20602,7 +20614,7 @@
       <c r="T402" s="1"/>
       <c r="U402" s="1"/>
     </row>
-    <row r="403" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1" t="s">
         <v>575</v>
       </c>
@@ -20651,7 +20663,7 @@
       <c r="T403" s="1"/>
       <c r="U403" s="1"/>
     </row>
-    <row r="404" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1" t="s">
         <v>575</v>
       </c>
@@ -20700,7 +20712,7 @@
       <c r="T404" s="1"/>
       <c r="U404" s="1"/>
     </row>
-    <row r="405" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1" t="s">
         <v>575</v>
       </c>
@@ -20749,7 +20761,7 @@
       <c r="T405" s="1"/>
       <c r="U405" s="1"/>
     </row>
-    <row r="406" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1" t="s">
         <v>575</v>
       </c>
@@ -20798,7 +20810,7 @@
       <c r="T406" s="1"/>
       <c r="U406" s="1"/>
     </row>
-    <row r="407" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1" t="s">
         <v>575</v>
       </c>
@@ -20847,7 +20859,7 @@
       <c r="T407" s="1"/>
       <c r="U407" s="1"/>
     </row>
-    <row r="408" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1" t="s">
         <v>575</v>
       </c>
@@ -20896,7 +20908,7 @@
       <c r="T408" s="1"/>
       <c r="U408" s="1"/>
     </row>
-    <row r="409" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -20919,7 +20931,7 @@
       <c r="T409" s="1"/>
       <c r="U409" s="1"/>
     </row>
-    <row r="410" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1" t="s">
         <v>585</v>
       </c>
@@ -20968,7 +20980,7 @@
       <c r="T410" s="1"/>
       <c r="U410" s="1"/>
     </row>
-    <row r="411" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1" t="s">
         <v>585</v>
       </c>
@@ -21017,7 +21029,7 @@
       <c r="T411" s="1"/>
       <c r="U411" s="1"/>
     </row>
-    <row r="412" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1" t="s">
         <v>585</v>
       </c>
@@ -21066,7 +21078,7 @@
       <c r="T412" s="1"/>
       <c r="U412" s="1"/>
     </row>
-    <row r="413" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -21089,7 +21101,7 @@
       <c r="T413" s="1"/>
       <c r="U413" s="1"/>
     </row>
-    <row r="414" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1" t="s">
         <v>589</v>
       </c>
@@ -21138,7 +21150,7 @@
       <c r="T414" s="1"/>
       <c r="U414" s="1"/>
     </row>
-    <row r="415" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1" t="s">
         <v>589</v>
       </c>
@@ -21187,7 +21199,7 @@
       <c r="T415" s="1"/>
       <c r="U415" s="1"/>
     </row>
-    <row r="416" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1" t="s">
         <v>589</v>
       </c>
@@ -21236,7 +21248,7 @@
       <c r="T416" s="1"/>
       <c r="U416" s="1"/>
     </row>
-    <row r="417" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1" t="s">
         <v>589</v>
       </c>
@@ -21285,7 +21297,7 @@
       <c r="T417" s="1"/>
       <c r="U417" s="1"/>
     </row>
-    <row r="418" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1" t="s">
         <v>589</v>
       </c>
@@ -21334,7 +21346,7 @@
       <c r="T418" s="1"/>
       <c r="U418" s="1"/>
     </row>
-    <row r="419" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1" t="s">
         <v>589</v>
       </c>
@@ -21383,7 +21395,7 @@
       <c r="T419" s="1"/>
       <c r="U419" s="1"/>
     </row>
-    <row r="420" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1" t="s">
         <v>589</v>
       </c>
@@ -21432,7 +21444,7 @@
       <c r="T420" s="1"/>
       <c r="U420" s="1"/>
     </row>
-    <row r="421" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -21455,7 +21467,7 @@
       <c r="T421" s="1"/>
       <c r="U421" s="1"/>
     </row>
-    <row r="422" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1" t="s">
         <v>601</v>
       </c>
@@ -21504,7 +21516,7 @@
       <c r="T422" s="1"/>
       <c r="U422" s="1"/>
     </row>
-    <row r="423" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1" t="s">
         <v>601</v>
       </c>
@@ -21553,7 +21565,7 @@
       <c r="T423" s="1"/>
       <c r="U423" s="1"/>
     </row>
-    <row r="424" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1" t="s">
         <v>601</v>
       </c>
@@ -21602,7 +21614,7 @@
       <c r="T424" s="1"/>
       <c r="U424" s="1"/>
     </row>
-    <row r="425" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1" t="s">
         <v>601</v>
       </c>
@@ -21651,7 +21663,7 @@
       <c r="T425" s="1"/>
       <c r="U425" s="1"/>
     </row>
-    <row r="426" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1" t="s">
         <v>601</v>
       </c>
@@ -21700,7 +21712,7 @@
       <c r="T426" s="1"/>
       <c r="U426" s="1"/>
     </row>
-    <row r="427" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -21723,7 +21735,7 @@
       <c r="T427" s="1"/>
       <c r="U427" s="1"/>
     </row>
-    <row r="428" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1" t="s">
         <v>609</v>
       </c>
@@ -21772,7 +21784,7 @@
       <c r="T428" s="1"/>
       <c r="U428" s="1"/>
     </row>
-    <row r="429" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1" t="s">
         <v>609</v>
       </c>
@@ -21821,7 +21833,7 @@
       <c r="T429" s="1"/>
       <c r="U429" s="1"/>
     </row>
-    <row r="430" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1" t="s">
         <v>609</v>
       </c>
@@ -21870,7 +21882,7 @@
       <c r="T430" s="1"/>
       <c r="U430" s="1"/>
     </row>
-    <row r="431" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1" t="s">
         <v>609</v>
       </c>
@@ -21919,7 +21931,7 @@
       <c r="T431" s="1"/>
       <c r="U431" s="1"/>
     </row>
-    <row r="432" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1" t="s">
         <v>609</v>
       </c>
@@ -21968,7 +21980,7 @@
       <c r="T432" s="1"/>
       <c r="U432" s="1"/>
     </row>
-    <row r="433" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1" t="s">
         <v>609</v>
       </c>
@@ -22017,7 +22029,7 @@
       <c r="T433" s="1"/>
       <c r="U433" s="1"/>
     </row>
-    <row r="434" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1" t="s">
         <v>609</v>
       </c>
@@ -22066,7 +22078,7 @@
       <c r="T434" s="1"/>
       <c r="U434" s="1"/>
     </row>
-    <row r="435" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1" t="s">
         <v>609</v>
       </c>
@@ -22115,7 +22127,7 @@
       <c r="T435" s="1"/>
       <c r="U435" s="1"/>
     </row>
-    <row r="436" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -22138,7 +22150,7 @@
       <c r="T436" s="1"/>
       <c r="U436" s="1"/>
     </row>
-    <row r="437" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1" t="s">
         <v>623</v>
       </c>
@@ -22187,7 +22199,7 @@
       <c r="T437" s="1"/>
       <c r="U437" s="1"/>
     </row>
-    <row r="438" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1" t="s">
         <v>623</v>
       </c>
@@ -22236,7 +22248,7 @@
       <c r="T438" s="1"/>
       <c r="U438" s="1"/>
     </row>
-    <row r="439" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1" t="s">
         <v>623</v>
       </c>
@@ -22285,7 +22297,7 @@
       <c r="T439" s="1"/>
       <c r="U439" s="1"/>
     </row>
-    <row r="440" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1" t="s">
         <v>623</v>
       </c>
@@ -22334,7 +22346,7 @@
       <c r="T440" s="1"/>
       <c r="U440" s="1"/>
     </row>
-    <row r="441" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1" t="s">
         <v>623</v>
       </c>
@@ -22383,7 +22395,7 @@
       <c r="T441" s="1"/>
       <c r="U441" s="1"/>
     </row>
-    <row r="442" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1" t="s">
         <v>623</v>
       </c>
@@ -22432,7 +22444,7 @@
       <c r="T442" s="1"/>
       <c r="U442" s="1"/>
     </row>
-    <row r="443" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -22455,7 +22467,7 @@
       <c r="T443" s="1"/>
       <c r="U443" s="1"/>
     </row>
-    <row r="444" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1" t="s">
         <v>631</v>
       </c>
@@ -22504,7 +22516,7 @@
       <c r="T444" s="1"/>
       <c r="U444" s="1"/>
     </row>
-    <row r="445" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1" t="s">
         <v>631</v>
       </c>
@@ -22553,7 +22565,7 @@
       <c r="T445" s="1"/>
       <c r="U445" s="1"/>
     </row>
-    <row r="446" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1" t="s">
         <v>631</v>
       </c>
@@ -22602,7 +22614,7 @@
       <c r="T446" s="1"/>
       <c r="U446" s="1"/>
     </row>
-    <row r="447" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1" t="s">
         <v>631</v>
       </c>
@@ -22651,7 +22663,7 @@
       <c r="T447" s="1"/>
       <c r="U447" s="1"/>
     </row>
-    <row r="448" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -22674,7 +22686,7 @@
       <c r="T448" s="1"/>
       <c r="U448" s="1"/>
     </row>
-    <row r="449" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1" t="s">
         <v>637</v>
       </c>
@@ -22723,7 +22735,7 @@
       <c r="T449" s="1"/>
       <c r="U449" s="1"/>
     </row>
-    <row r="450" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1" t="s">
         <v>637</v>
       </c>
@@ -22772,7 +22784,7 @@
       <c r="T450" s="1"/>
       <c r="U450" s="1"/>
     </row>
-    <row r="451" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1" t="s">
         <v>637</v>
       </c>
@@ -22821,7 +22833,7 @@
       <c r="T451" s="1"/>
       <c r="U451" s="1"/>
     </row>
-    <row r="452" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1" t="s">
         <v>637</v>
       </c>
@@ -22870,7 +22882,7 @@
       <c r="T452" s="1"/>
       <c r="U452" s="1"/>
     </row>
-    <row r="453" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1" t="s">
         <v>637</v>
       </c>
@@ -22919,7 +22931,7 @@
       <c r="T453" s="1"/>
       <c r="U453" s="1"/>
     </row>
-    <row r="454" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1" t="s">
         <v>637</v>
       </c>
@@ -22968,7 +22980,7 @@
       <c r="T454" s="1"/>
       <c r="U454" s="1"/>
     </row>
-    <row r="455" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1" t="s">
         <v>637</v>
       </c>
@@ -23017,7 +23029,7 @@
       <c r="T455" s="1"/>
       <c r="U455" s="1"/>
     </row>
-    <row r="456" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1" t="s">
         <v>637</v>
       </c>
@@ -23066,7 +23078,7 @@
       <c r="T456" s="1"/>
       <c r="U456" s="1"/>
     </row>
-    <row r="457" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1" t="s">
         <v>637</v>
       </c>
@@ -23115,7 +23127,7 @@
       <c r="T457" s="1"/>
       <c r="U457" s="1"/>
     </row>
-    <row r="458" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1" t="s">
         <v>637</v>
       </c>
@@ -23164,7 +23176,7 @@
       <c r="T458" s="1"/>
       <c r="U458" s="1"/>
     </row>
-    <row r="459" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1" t="s">
         <v>637</v>
       </c>
@@ -23213,7 +23225,7 @@
       <c r="T459" s="1"/>
       <c r="U459" s="1"/>
     </row>
-    <row r="460" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1" t="s">
         <v>637</v>
       </c>
@@ -23262,7 +23274,7 @@
       <c r="T460" s="1"/>
       <c r="U460" s="1"/>
     </row>
-    <row r="461" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1" t="s">
         <v>637</v>
       </c>
@@ -23311,7 +23323,7 @@
       <c r="T461" s="1"/>
       <c r="U461" s="1"/>
     </row>
-    <row r="462" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1" t="s">
         <v>637</v>
       </c>
@@ -23360,7 +23372,7 @@
       <c r="T462" s="1"/>
       <c r="U462" s="1"/>
     </row>
-    <row r="463" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="1" t="s">
         <v>637</v>
       </c>
@@ -23409,7 +23421,7 @@
       <c r="T463" s="1"/>
       <c r="U463" s="1"/>
     </row>
-    <row r="464" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="1" t="s">
         <v>637</v>
       </c>
@@ -23458,7 +23470,7 @@
       <c r="T464" s="1"/>
       <c r="U464" s="1"/>
     </row>
-    <row r="465" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1" t="s">
         <v>637</v>
       </c>
@@ -23507,7 +23519,7 @@
       <c r="T465" s="1"/>
       <c r="U465" s="1"/>
     </row>
-    <row r="466" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="1" t="s">
         <v>637</v>
       </c>
@@ -23556,7 +23568,7 @@
       <c r="T466" s="1"/>
       <c r="U466" s="1"/>
     </row>
-    <row r="467" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1" t="s">
         <v>637</v>
       </c>
@@ -23605,7 +23617,7 @@
       <c r="T467" s="1"/>
       <c r="U467" s="1"/>
     </row>
-    <row r="468" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1" t="s">
         <v>637</v>
       </c>
@@ -23654,7 +23666,7 @@
       <c r="T468" s="1"/>
       <c r="U468" s="1"/>
     </row>
-    <row r="469" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1" t="s">
         <v>637</v>
       </c>
@@ -23703,7 +23715,7 @@
       <c r="T469" s="1"/>
       <c r="U469" s="1"/>
     </row>
-    <row r="470" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1" t="s">
         <v>637</v>
       </c>
@@ -23752,7 +23764,7 @@
       <c r="T470" s="1"/>
       <c r="U470" s="1"/>
     </row>
-    <row r="471" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1" t="s">
         <v>637</v>
       </c>
@@ -23801,7 +23813,7 @@
       <c r="T471" s="1"/>
       <c r="U471" s="1"/>
     </row>
-    <row r="472" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1" t="s">
         <v>637</v>
       </c>
@@ -23850,7 +23862,7 @@
       <c r="T472" s="1"/>
       <c r="U472" s="1"/>
     </row>
-    <row r="473" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1" t="s">
         <v>637</v>
       </c>
@@ -23899,7 +23911,7 @@
       <c r="T473" s="1"/>
       <c r="U473" s="1"/>
     </row>
-    <row r="474" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1" t="s">
         <v>637</v>
       </c>
@@ -23948,7 +23960,7 @@
       <c r="T474" s="1"/>
       <c r="U474" s="1"/>
     </row>
-    <row r="475" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1" t="s">
         <v>637</v>
       </c>
@@ -23997,7 +24009,7 @@
       <c r="T475" s="1"/>
       <c r="U475" s="1"/>
     </row>
-    <row r="476" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1" t="s">
         <v>637</v>
       </c>
@@ -24046,7 +24058,7 @@
       <c r="T476" s="1"/>
       <c r="U476" s="1"/>
     </row>
-    <row r="477" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1" t="s">
         <v>637</v>
       </c>
@@ -24095,7 +24107,7 @@
       <c r="T477" s="1"/>
       <c r="U477" s="1"/>
     </row>
-    <row r="478" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1" t="s">
         <v>637</v>
       </c>
@@ -24144,7 +24156,7 @@
       <c r="T478" s="1"/>
       <c r="U478" s="1"/>
     </row>
-    <row r="479" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1" t="s">
         <v>637</v>
       </c>
@@ -24173,7 +24185,7 @@
       <c r="T479" s="1"/>
       <c r="U479" s="1"/>
     </row>
-    <row r="480" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1" t="s">
         <v>637</v>
       </c>
@@ -24222,7 +24234,7 @@
       <c r="T480" s="1"/>
       <c r="U480" s="1"/>
     </row>
-    <row r="481" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1" t="s">
         <v>637</v>
       </c>
@@ -24271,7 +24283,7 @@
       <c r="T481" s="1"/>
       <c r="U481" s="1"/>
     </row>
-    <row r="482" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="1" t="s">
         <v>637</v>
       </c>
@@ -24320,7 +24332,7 @@
       <c r="T482" s="1"/>
       <c r="U482" s="1"/>
     </row>
-    <row r="483" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -24343,7 +24355,7 @@
       <c r="T483" s="1"/>
       <c r="U483" s="1"/>
     </row>
-    <row r="484" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="1" t="s">
         <v>683</v>
       </c>
@@ -24392,7 +24404,7 @@
       <c r="T484" s="1"/>
       <c r="U484" s="1"/>
     </row>
-    <row r="485" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="1" t="s">
         <v>683</v>
       </c>
@@ -24441,7 +24453,7 @@
       <c r="T485" s="1"/>
       <c r="U485" s="1"/>
     </row>
-    <row r="486" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="1" t="s">
         <v>683</v>
       </c>
@@ -24490,7 +24502,7 @@
       <c r="T486" s="1"/>
       <c r="U486" s="1"/>
     </row>
-    <row r="487" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="1" t="s">
         <v>683</v>
       </c>
@@ -24539,7 +24551,7 @@
       <c r="T487" s="1"/>
       <c r="U487" s="1"/>
     </row>
-    <row r="488" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="1" t="s">
         <v>683</v>
       </c>
@@ -24588,7 +24600,7 @@
       <c r="T488" s="1"/>
       <c r="U488" s="1"/>
     </row>
-    <row r="489" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -24611,7 +24623,7 @@
       <c r="T489" s="1"/>
       <c r="U489" s="1"/>
     </row>
-    <row r="490" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="1" t="s">
         <v>691</v>
       </c>
@@ -24660,7 +24672,7 @@
       <c r="T490" s="1"/>
       <c r="U490" s="1"/>
     </row>
-    <row r="491" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="1" t="s">
         <v>691</v>
       </c>
@@ -24709,7 +24721,7 @@
       <c r="T491" s="1"/>
       <c r="U491" s="1"/>
     </row>
-    <row r="492" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="1" t="s">
         <v>691</v>
       </c>
@@ -24758,7 +24770,7 @@
       <c r="T492" s="1"/>
       <c r="U492" s="1"/>
     </row>
-    <row r="493" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="1" t="s">
         <v>691</v>
       </c>
@@ -24807,7 +24819,7 @@
       <c r="T493" s="1"/>
       <c r="U493" s="1"/>
     </row>
-    <row r="494" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1" t="s">
         <v>691</v>
       </c>
@@ -24856,7 +24868,7 @@
       <c r="T494" s="1"/>
       <c r="U494" s="1"/>
     </row>
-    <row r="495" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="1" t="s">
         <v>691</v>
       </c>
@@ -24905,7 +24917,7 @@
       <c r="T495" s="1"/>
       <c r="U495" s="1"/>
     </row>
-    <row r="496" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="1" t="s">
         <v>691</v>
       </c>
@@ -24954,7 +24966,7 @@
       <c r="T496" s="1"/>
       <c r="U496" s="1"/>
     </row>
-    <row r="497" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="1" t="s">
         <v>691</v>
       </c>
@@ -25003,7 +25015,7 @@
       <c r="T497" s="1"/>
       <c r="U497" s="1"/>
     </row>
-    <row r="498" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="1" t="s">
         <v>691</v>
       </c>
@@ -25052,7 +25064,7 @@
       <c r="T498" s="1"/>
       <c r="U498" s="1"/>
     </row>
-    <row r="499" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="1" t="s">
         <v>691</v>
       </c>
@@ -25101,7 +25113,7 @@
       <c r="T499" s="1"/>
       <c r="U499" s="1"/>
     </row>
-    <row r="500" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="1" t="s">
         <v>691</v>
       </c>
@@ -25150,7 +25162,7 @@
       <c r="T500" s="1"/>
       <c r="U500" s="1"/>
     </row>
-    <row r="501" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="1" t="s">
         <v>691</v>
       </c>
@@ -25199,7 +25211,7 @@
       <c r="T501" s="1"/>
       <c r="U501" s="1"/>
     </row>
-    <row r="502" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="1" t="s">
         <v>691</v>
       </c>
@@ -25248,7 +25260,7 @@
       <c r="T502" s="1"/>
       <c r="U502" s="1"/>
     </row>
-    <row r="503" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="1" t="s">
         <v>691</v>
       </c>
@@ -25297,7 +25309,7 @@
       <c r="T503" s="1"/>
       <c r="U503" s="1"/>
     </row>
-    <row r="504" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="1" t="s">
         <v>691</v>
       </c>
@@ -25346,7 +25358,7 @@
       <c r="T504" s="1"/>
       <c r="U504" s="1"/>
     </row>
-    <row r="505" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="1" t="s">
         <v>691</v>
       </c>
@@ -25395,7 +25407,7 @@
       <c r="T505" s="1"/>
       <c r="U505" s="1"/>
     </row>
-    <row r="506" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="1" t="s">
         <v>691</v>
       </c>
@@ -25444,7 +25456,7 @@
       <c r="T506" s="1"/>
       <c r="U506" s="1"/>
     </row>
-    <row r="507" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="1" t="s">
         <v>691</v>
       </c>
@@ -25493,7 +25505,7 @@
       <c r="T507" s="1"/>
       <c r="U507" s="1"/>
     </row>
-    <row r="508" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="1" t="s">
         <v>691</v>
       </c>
@@ -25542,7 +25554,7 @@
       <c r="T508" s="1"/>
       <c r="U508" s="1"/>
     </row>
-    <row r="509" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="1" t="s">
         <v>691</v>
       </c>
@@ -25591,7 +25603,7 @@
       <c r="T509" s="1"/>
       <c r="U509" s="1"/>
     </row>
-    <row r="510" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="1" t="s">
         <v>691</v>
       </c>
@@ -25640,7 +25652,7 @@
       <c r="T510" s="1"/>
       <c r="U510" s="1"/>
     </row>
-    <row r="511" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="1" t="s">
         <v>691</v>
       </c>
@@ -25689,7 +25701,7 @@
       <c r="T511" s="1"/>
       <c r="U511" s="1"/>
     </row>
-    <row r="512" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -25712,7 +25724,7 @@
       <c r="T512" s="1"/>
       <c r="U512" s="1"/>
     </row>
-    <row r="513" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -25735,7 +25747,7 @@
       <c r="T513" s="1"/>
       <c r="U513" s="1"/>
     </row>
-    <row r="514" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -25758,7 +25770,7 @@
       <c r="T514" s="1"/>
       <c r="U514" s="1"/>
     </row>
-    <row r="515" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -25781,7 +25793,7 @@
       <c r="T515" s="1"/>
       <c r="U515" s="1"/>
     </row>
-    <row r="516" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -25804,7 +25816,7 @@
       <c r="T516" s="1"/>
       <c r="U516" s="1"/>
     </row>
-    <row r="517" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -25827,7 +25839,7 @@
       <c r="T517" s="1"/>
       <c r="U517" s="1"/>
     </row>
-    <row r="518" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -25850,7 +25862,7 @@
       <c r="T518" s="1"/>
       <c r="U518" s="1"/>
     </row>
-    <row r="519" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -25873,7 +25885,7 @@
       <c r="T519" s="1"/>
       <c r="U519" s="1"/>
     </row>
-    <row r="520" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -25896,7 +25908,7 @@
       <c r="T520" s="1"/>
       <c r="U520" s="1"/>
     </row>
-    <row r="521" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -25919,7 +25931,7 @@
       <c r="T521" s="1"/>
       <c r="U521" s="1"/>
     </row>
-    <row r="522" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -25942,7 +25954,7 @@
       <c r="T522" s="1"/>
       <c r="U522" s="1"/>
     </row>
-    <row r="523" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -25965,7 +25977,7 @@
       <c r="T523" s="1"/>
       <c r="U523" s="1"/>
     </row>
-    <row r="524" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -25988,7 +26000,7 @@
       <c r="T524" s="1"/>
       <c r="U524" s="1"/>
     </row>
-    <row r="525" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -26011,7 +26023,7 @@
       <c r="T525" s="1"/>
       <c r="U525" s="1"/>
     </row>
-    <row r="526" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -26034,7 +26046,7 @@
       <c r="T526" s="1"/>
       <c r="U526" s="1"/>
     </row>
-    <row r="527" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -26057,7 +26069,7 @@
       <c r="T527" s="1"/>
       <c r="U527" s="1"/>
     </row>
-    <row r="528" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -26080,7 +26092,7 @@
       <c r="T528" s="1"/>
       <c r="U528" s="1"/>
     </row>
-    <row r="529" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -26103,7 +26115,7 @@
       <c r="T529" s="1"/>
       <c r="U529" s="1"/>
     </row>
-    <row r="530" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -26126,7 +26138,7 @@
       <c r="T530" s="1"/>
       <c r="U530" s="1"/>
     </row>
-    <row r="531" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -26149,7 +26161,7 @@
       <c r="T531" s="1"/>
       <c r="U531" s="1"/>
     </row>
-    <row r="532" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -26172,7 +26184,7 @@
       <c r="T532" s="1"/>
       <c r="U532" s="1"/>
     </row>
-    <row r="533" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -26195,7 +26207,7 @@
       <c r="T533" s="1"/>
       <c r="U533" s="1"/>
     </row>
-    <row r="534" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -26218,7 +26230,7 @@
       <c r="T534" s="1"/>
       <c r="U534" s="1"/>
     </row>
-    <row r="535" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -26241,7 +26253,7 @@
       <c r="T535" s="1"/>
       <c r="U535" s="1"/>
     </row>
-    <row r="536" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -26264,7 +26276,7 @@
       <c r="T536" s="1"/>
       <c r="U536" s="1"/>
     </row>
-    <row r="537" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -26287,7 +26299,7 @@
       <c r="T537" s="1"/>
       <c r="U537" s="1"/>
     </row>
-    <row r="538" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -26310,7 +26322,7 @@
       <c r="T538" s="1"/>
       <c r="U538" s="1"/>
     </row>
-    <row r="539" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -26333,7 +26345,7 @@
       <c r="T539" s="1"/>
       <c r="U539" s="1"/>
     </row>
-    <row r="540" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -26356,7 +26368,7 @@
       <c r="T540" s="1"/>
       <c r="U540" s="1"/>
     </row>
-    <row r="541" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -26379,7 +26391,7 @@
       <c r="T541" s="1"/>
       <c r="U541" s="1"/>
     </row>
-    <row r="542" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -26402,7 +26414,7 @@
       <c r="T542" s="1"/>
       <c r="U542" s="1"/>
     </row>
-    <row r="543" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -26425,7 +26437,7 @@
       <c r="T543" s="1"/>
       <c r="U543" s="1"/>
     </row>
-    <row r="544" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -26448,7 +26460,7 @@
       <c r="T544" s="1"/>
       <c r="U544" s="1"/>
     </row>
-    <row r="545" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -26471,7 +26483,7 @@
       <c r="T545" s="1"/>
       <c r="U545" s="1"/>
     </row>
-    <row r="546" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -26494,7 +26506,7 @@
       <c r="T546" s="1"/>
       <c r="U546" s="1"/>
     </row>
-    <row r="547" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -26517,7 +26529,7 @@
       <c r="T547" s="1"/>
       <c r="U547" s="1"/>
     </row>
-    <row r="548" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -26540,7 +26552,7 @@
       <c r="T548" s="1"/>
       <c r="U548" s="1"/>
     </row>
-    <row r="549" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -26563,7 +26575,7 @@
       <c r="T549" s="1"/>
       <c r="U549" s="1"/>
     </row>
-    <row r="550" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -26586,7 +26598,7 @@
       <c r="T550" s="1"/>
       <c r="U550" s="1"/>
     </row>
-    <row r="551" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -26609,7 +26621,7 @@
       <c r="T551" s="1"/>
       <c r="U551" s="1"/>
     </row>
-    <row r="552" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -26632,7 +26644,7 @@
       <c r="T552" s="1"/>
       <c r="U552" s="1"/>
     </row>
-    <row r="553" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -26655,7 +26667,7 @@
       <c r="T553" s="1"/>
       <c r="U553" s="1"/>
     </row>
-    <row r="554" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -26678,7 +26690,7 @@
       <c r="T554" s="1"/>
       <c r="U554" s="1"/>
     </row>
-    <row r="555" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -26701,7 +26713,7 @@
       <c r="T555" s="1"/>
       <c r="U555" s="1"/>
     </row>
-    <row r="556" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -26724,7 +26736,7 @@
       <c r="T556" s="1"/>
       <c r="U556" s="1"/>
     </row>
-    <row r="557" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -26747,7 +26759,7 @@
       <c r="T557" s="1"/>
       <c r="U557" s="1"/>
     </row>
-    <row r="558" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -26770,7 +26782,7 @@
       <c r="T558" s="1"/>
       <c r="U558" s="1"/>
     </row>
-    <row r="559" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -26793,7 +26805,7 @@
       <c r="T559" s="1"/>
       <c r="U559" s="1"/>
     </row>
-    <row r="560" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -26816,7 +26828,7 @@
       <c r="T560" s="1"/>
       <c r="U560" s="1"/>
     </row>
-    <row r="561" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -26839,7 +26851,7 @@
       <c r="T561" s="1"/>
       <c r="U561" s="1"/>
     </row>
-    <row r="562" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -26862,7 +26874,7 @@
       <c r="T562" s="1"/>
       <c r="U562" s="1"/>
     </row>
-    <row r="563" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -26885,7 +26897,7 @@
       <c r="T563" s="1"/>
       <c r="U563" s="1"/>
     </row>
-    <row r="564" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -26908,7 +26920,7 @@
       <c r="T564" s="1"/>
       <c r="U564" s="1"/>
     </row>
-    <row r="565" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -26931,7 +26943,7 @@
       <c r="T565" s="1"/>
       <c r="U565" s="1"/>
     </row>
-    <row r="566" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -26954,7 +26966,7 @@
       <c r="T566" s="1"/>
       <c r="U566" s="1"/>
     </row>
-    <row r="567" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -26977,7 +26989,7 @@
       <c r="T567" s="1"/>
       <c r="U567" s="1"/>
     </row>
-    <row r="568" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -27000,7 +27012,7 @@
       <c r="T568" s="1"/>
       <c r="U568" s="1"/>
     </row>
-    <row r="569" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -27023,7 +27035,7 @@
       <c r="T569" s="1"/>
       <c r="U569" s="1"/>
     </row>
-    <row r="570" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -27046,7 +27058,7 @@
       <c r="T570" s="1"/>
       <c r="U570" s="1"/>
     </row>
-    <row r="571" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -27069,7 +27081,7 @@
       <c r="T571" s="1"/>
       <c r="U571" s="1"/>
     </row>
-    <row r="572" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -27092,7 +27104,7 @@
       <c r="T572" s="1"/>
       <c r="U572" s="1"/>
     </row>
-    <row r="573" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -27115,7 +27127,7 @@
       <c r="T573" s="1"/>
       <c r="U573" s="1"/>
     </row>
-    <row r="574" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -27138,7 +27150,7 @@
       <c r="T574" s="1"/>
       <c r="U574" s="1"/>
     </row>
-    <row r="575" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -27161,7 +27173,7 @@
       <c r="T575" s="1"/>
       <c r="U575" s="1"/>
     </row>
-    <row r="576" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -27184,7 +27196,7 @@
       <c r="T576" s="1"/>
       <c r="U576" s="1"/>
     </row>
-    <row r="577" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -27207,7 +27219,7 @@
       <c r="T577" s="1"/>
       <c r="U577" s="1"/>
     </row>
-    <row r="578" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -27230,7 +27242,7 @@
       <c r="T578" s="1"/>
       <c r="U578" s="1"/>
     </row>
-    <row r="579" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -27253,7 +27265,7 @@
       <c r="T579" s="1"/>
       <c r="U579" s="1"/>
     </row>
-    <row r="580" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -27276,7 +27288,7 @@
       <c r="T580" s="1"/>
       <c r="U580" s="1"/>
     </row>
-    <row r="581" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -27299,7 +27311,7 @@
       <c r="T581" s="1"/>
       <c r="U581" s="1"/>
     </row>
-    <row r="582" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -27322,7 +27334,7 @@
       <c r="T582" s="1"/>
       <c r="U582" s="1"/>
     </row>
-    <row r="583" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -27345,7 +27357,7 @@
       <c r="T583" s="1"/>
       <c r="U583" s="1"/>
     </row>
-    <row r="584" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -27368,7 +27380,7 @@
       <c r="T584" s="1"/>
       <c r="U584" s="1"/>
     </row>
-    <row r="585" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -27391,7 +27403,7 @@
       <c r="T585" s="1"/>
       <c r="U585" s="1"/>
     </row>
-    <row r="586" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -27414,7 +27426,7 @@
       <c r="T586" s="1"/>
       <c r="U586" s="1"/>
     </row>
-    <row r="587" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -27437,7 +27449,7 @@
       <c r="T587" s="1"/>
       <c r="U587" s="1"/>
     </row>
-    <row r="588" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -27460,7 +27472,7 @@
       <c r="T588" s="1"/>
       <c r="U588" s="1"/>
     </row>
-    <row r="589" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -27483,7 +27495,7 @@
       <c r="T589" s="1"/>
       <c r="U589" s="1"/>
     </row>
-    <row r="590" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -27506,7 +27518,7 @@
       <c r="T590" s="1"/>
       <c r="U590" s="1"/>
     </row>
-    <row r="591" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -27529,7 +27541,7 @@
       <c r="T591" s="1"/>
       <c r="U591" s="1"/>
     </row>
-    <row r="592" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -27552,7 +27564,7 @@
       <c r="T592" s="1"/>
       <c r="U592" s="1"/>
     </row>
-    <row r="593" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -27575,7 +27587,7 @@
       <c r="T593" s="1"/>
       <c r="U593" s="1"/>
     </row>
-    <row r="594" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -27598,7 +27610,7 @@
       <c r="T594" s="1"/>
       <c r="U594" s="1"/>
     </row>
-    <row r="595" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -27621,7 +27633,7 @@
       <c r="T595" s="1"/>
       <c r="U595" s="1"/>
     </row>
-    <row r="596" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -27644,7 +27656,7 @@
       <c r="T596" s="1"/>
       <c r="U596" s="1"/>
     </row>
-    <row r="597" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -27667,7 +27679,7 @@
       <c r="T597" s="1"/>
       <c r="U597" s="1"/>
     </row>
-    <row r="598" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -27690,7 +27702,7 @@
       <c r="T598" s="1"/>
       <c r="U598" s="1"/>
     </row>
-    <row r="599" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -27713,7 +27725,7 @@
       <c r="T599" s="1"/>
       <c r="U599" s="1"/>
     </row>
-    <row r="600" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -27736,7 +27748,7 @@
       <c r="T600" s="1"/>
       <c r="U600" s="1"/>
     </row>
-    <row r="601" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -27759,7 +27771,7 @@
       <c r="T601" s="1"/>
       <c r="U601" s="1"/>
     </row>
-    <row r="602" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -27782,7 +27794,7 @@
       <c r="T602" s="1"/>
       <c r="U602" s="1"/>
     </row>
-    <row r="603" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -27805,7 +27817,7 @@
       <c r="T603" s="1"/>
       <c r="U603" s="1"/>
     </row>
-    <row r="604" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -27828,7 +27840,7 @@
       <c r="T604" s="1"/>
       <c r="U604" s="1"/>
     </row>
-    <row r="605" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -27851,7 +27863,7 @@
       <c r="T605" s="1"/>
       <c r="U605" s="1"/>
     </row>
-    <row r="606" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -27874,7 +27886,7 @@
       <c r="T606" s="1"/>
       <c r="U606" s="1"/>
     </row>
-    <row r="607" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -27897,7 +27909,7 @@
       <c r="T607" s="1"/>
       <c r="U607" s="1"/>
     </row>
-    <row r="608" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -27920,7 +27932,7 @@
       <c r="T608" s="1"/>
       <c r="U608" s="1"/>
     </row>
-    <row r="609" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -27943,7 +27955,7 @@
       <c r="T609" s="1"/>
       <c r="U609" s="1"/>
     </row>
-    <row r="610" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -27966,7 +27978,7 @@
       <c r="T610" s="1"/>
       <c r="U610" s="1"/>
     </row>
-    <row r="611" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -27989,7 +28001,7 @@
       <c r="T611" s="1"/>
       <c r="U611" s="1"/>
     </row>
-    <row r="612" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -28012,7 +28024,7 @@
       <c r="T612" s="1"/>
       <c r="U612" s="1"/>
     </row>
-    <row r="613" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -28035,7 +28047,7 @@
       <c r="T613" s="1"/>
       <c r="U613" s="1"/>
     </row>
-    <row r="614" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -28058,7 +28070,7 @@
       <c r="T614" s="1"/>
       <c r="U614" s="1"/>
     </row>
-    <row r="615" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -28081,7 +28093,7 @@
       <c r="T615" s="1"/>
       <c r="U615" s="1"/>
     </row>
-    <row r="616" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -28104,7 +28116,7 @@
       <c r="T616" s="1"/>
       <c r="U616" s="1"/>
     </row>
-    <row r="617" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -28127,7 +28139,7 @@
       <c r="T617" s="1"/>
       <c r="U617" s="1"/>
     </row>
-    <row r="618" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -28150,7 +28162,7 @@
       <c r="T618" s="1"/>
       <c r="U618" s="1"/>
     </row>
-    <row r="619" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -28173,7 +28185,7 @@
       <c r="T619" s="1"/>
       <c r="U619" s="1"/>
     </row>
-    <row r="620" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -28196,7 +28208,7 @@
       <c r="T620" s="1"/>
       <c r="U620" s="1"/>
     </row>
-    <row r="621" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -28219,7 +28231,7 @@
       <c r="T621" s="1"/>
       <c r="U621" s="1"/>
     </row>
-    <row r="622" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -28242,7 +28254,7 @@
       <c r="T622" s="1"/>
       <c r="U622" s="1"/>
     </row>
-    <row r="623" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -28265,7 +28277,7 @@
       <c r="T623" s="1"/>
       <c r="U623" s="1"/>
     </row>
-    <row r="624" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -28288,7 +28300,7 @@
       <c r="T624" s="1"/>
       <c r="U624" s="1"/>
     </row>
-    <row r="625" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -28311,7 +28323,7 @@
       <c r="T625" s="1"/>
       <c r="U625" s="1"/>
     </row>
-    <row r="626" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -28334,7 +28346,7 @@
       <c r="T626" s="1"/>
       <c r="U626" s="1"/>
     </row>
-    <row r="627" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -28357,7 +28369,7 @@
       <c r="T627" s="1"/>
       <c r="U627" s="1"/>
     </row>
-    <row r="628" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -28380,7 +28392,7 @@
       <c r="T628" s="1"/>
       <c r="U628" s="1"/>
     </row>
-    <row r="629" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -28403,7 +28415,7 @@
       <c r="T629" s="1"/>
       <c r="U629" s="1"/>
     </row>
-    <row r="630" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -28426,7 +28438,7 @@
       <c r="T630" s="1"/>
       <c r="U630" s="1"/>
     </row>
-    <row r="631" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -28449,7 +28461,7 @@
       <c r="T631" s="1"/>
       <c r="U631" s="1"/>
     </row>
-    <row r="632" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -28472,7 +28484,7 @@
       <c r="T632" s="1"/>
       <c r="U632" s="1"/>
     </row>
-    <row r="633" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -28495,7 +28507,7 @@
       <c r="T633" s="1"/>
       <c r="U633" s="1"/>
     </row>
-    <row r="634" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -28518,7 +28530,7 @@
       <c r="T634" s="1"/>
       <c r="U634" s="1"/>
     </row>
-    <row r="635" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -28541,7 +28553,7 @@
       <c r="T635" s="1"/>
       <c r="U635" s="1"/>
     </row>
-    <row r="636" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -28564,7 +28576,7 @@
       <c r="T636" s="1"/>
       <c r="U636" s="1"/>
     </row>
-    <row r="637" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -28587,7 +28599,7 @@
       <c r="T637" s="1"/>
       <c r="U637" s="1"/>
     </row>
-    <row r="638" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -28610,7 +28622,7 @@
       <c r="T638" s="1"/>
       <c r="U638" s="1"/>
     </row>
-    <row r="639" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -28633,7 +28645,7 @@
       <c r="T639" s="1"/>
       <c r="U639" s="1"/>
     </row>
-    <row r="640" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -28656,7 +28668,7 @@
       <c r="T640" s="1"/>
       <c r="U640" s="1"/>
     </row>
-    <row r="641" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -28679,7 +28691,7 @@
       <c r="T641" s="1"/>
       <c r="U641" s="1"/>
     </row>
-    <row r="642" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -28702,7 +28714,7 @@
       <c r="T642" s="1"/>
       <c r="U642" s="1"/>
     </row>
-    <row r="643" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -28725,7 +28737,7 @@
       <c r="T643" s="1"/>
       <c r="U643" s="1"/>
     </row>
-    <row r="644" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -28748,7 +28760,7 @@
       <c r="T644" s="1"/>
       <c r="U644" s="1"/>
     </row>
-    <row r="645" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -28771,7 +28783,7 @@
       <c r="T645" s="1"/>
       <c r="U645" s="1"/>
     </row>
-    <row r="646" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -28794,7 +28806,7 @@
       <c r="T646" s="1"/>
       <c r="U646" s="1"/>
     </row>
-    <row r="647" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -28817,7 +28829,7 @@
       <c r="T647" s="1"/>
       <c r="U647" s="1"/>
     </row>
-    <row r="648" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -28840,7 +28852,7 @@
       <c r="T648" s="1"/>
       <c r="U648" s="1"/>
     </row>
-    <row r="649" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -28863,7 +28875,7 @@
       <c r="T649" s="1"/>
       <c r="U649" s="1"/>
     </row>
-    <row r="650" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -28886,7 +28898,7 @@
       <c r="T650" s="1"/>
       <c r="U650" s="1"/>
     </row>
-    <row r="651" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -28909,7 +28921,7 @@
       <c r="T651" s="1"/>
       <c r="U651" s="1"/>
     </row>
-    <row r="652" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -28932,7 +28944,7 @@
       <c r="T652" s="1"/>
       <c r="U652" s="1"/>
     </row>
-    <row r="653" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -28955,7 +28967,7 @@
       <c r="T653" s="1"/>
       <c r="U653" s="1"/>
     </row>
-    <row r="654" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -28978,7 +28990,7 @@
       <c r="T654" s="1"/>
       <c r="U654" s="1"/>
     </row>
-    <row r="655" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -29001,7 +29013,7 @@
       <c r="T655" s="1"/>
       <c r="U655" s="1"/>
     </row>
-    <row r="656" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -29024,7 +29036,7 @@
       <c r="T656" s="1"/>
       <c r="U656" s="1"/>
     </row>
-    <row r="657" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -29047,7 +29059,7 @@
       <c r="T657" s="1"/>
       <c r="U657" s="1"/>
     </row>
-    <row r="658" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -29070,7 +29082,7 @@
       <c r="T658" s="1"/>
       <c r="U658" s="1"/>
     </row>
-    <row r="659" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -29093,7 +29105,7 @@
       <c r="T659" s="1"/>
       <c r="U659" s="1"/>
     </row>
-    <row r="660" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -29116,7 +29128,7 @@
       <c r="T660" s="1"/>
       <c r="U660" s="1"/>
     </row>
-    <row r="661" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -29139,7 +29151,7 @@
       <c r="T661" s="1"/>
       <c r="U661" s="1"/>
     </row>
-    <row r="662" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -29162,7 +29174,7 @@
       <c r="T662" s="1"/>
       <c r="U662" s="1"/>
     </row>
-    <row r="663" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -29185,7 +29197,7 @@
       <c r="T663" s="1"/>
       <c r="U663" s="1"/>
     </row>
-    <row r="664" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -29208,7 +29220,7 @@
       <c r="T664" s="1"/>
       <c r="U664" s="1"/>
     </row>
-    <row r="665" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -29231,7 +29243,7 @@
       <c r="T665" s="1"/>
       <c r="U665" s="1"/>
     </row>
-    <row r="666" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -29254,7 +29266,7 @@
       <c r="T666" s="1"/>
       <c r="U666" s="1"/>
     </row>
-    <row r="667" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -29277,7 +29289,7 @@
       <c r="T667" s="1"/>
       <c r="U667" s="1"/>
     </row>
-    <row r="668" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -29300,7 +29312,7 @@
       <c r="T668" s="1"/>
       <c r="U668" s="1"/>
     </row>
-    <row r="669" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -29323,7 +29335,7 @@
       <c r="T669" s="1"/>
       <c r="U669" s="1"/>
     </row>
-    <row r="670" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -29346,7 +29358,7 @@
       <c r="T670" s="1"/>
       <c r="U670" s="1"/>
     </row>
-    <row r="671" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -29369,7 +29381,7 @@
       <c r="T671" s="1"/>
       <c r="U671" s="1"/>
     </row>
-    <row r="672" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -29392,7 +29404,7 @@
       <c r="T672" s="1"/>
       <c r="U672" s="1"/>
     </row>
-    <row r="673" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -29415,7 +29427,7 @@
       <c r="T673" s="1"/>
       <c r="U673" s="1"/>
     </row>
-    <row r="674" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -29438,7 +29450,7 @@
       <c r="T674" s="1"/>
       <c r="U674" s="1"/>
     </row>
-    <row r="675" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -29461,7 +29473,7 @@
       <c r="T675" s="1"/>
       <c r="U675" s="1"/>
     </row>
-    <row r="676" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -29484,7 +29496,7 @@
       <c r="T676" s="1"/>
       <c r="U676" s="1"/>
     </row>
-    <row r="677" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -29507,7 +29519,7 @@
       <c r="T677" s="1"/>
       <c r="U677" s="1"/>
     </row>
-    <row r="678" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -29530,7 +29542,7 @@
       <c r="T678" s="1"/>
       <c r="U678" s="1"/>
     </row>
-    <row r="679" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -29553,7 +29565,7 @@
       <c r="T679" s="1"/>
       <c r="U679" s="1"/>
     </row>
-    <row r="680" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -29576,7 +29588,7 @@
       <c r="T680" s="1"/>
       <c r="U680" s="1"/>
     </row>
-    <row r="681" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -29599,7 +29611,7 @@
       <c r="T681" s="1"/>
       <c r="U681" s="1"/>
     </row>
-    <row r="682" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -29622,7 +29634,7 @@
       <c r="T682" s="1"/>
       <c r="U682" s="1"/>
     </row>
-    <row r="683" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -29645,7 +29657,7 @@
       <c r="T683" s="1"/>
       <c r="U683" s="1"/>
     </row>
-    <row r="684" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -29668,7 +29680,7 @@
       <c r="T684" s="1"/>
       <c r="U684" s="1"/>
     </row>
-    <row r="685" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -29691,7 +29703,7 @@
       <c r="T685" s="1"/>
       <c r="U685" s="1"/>
     </row>
-    <row r="686" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -29714,7 +29726,7 @@
       <c r="T686" s="1"/>
       <c r="U686" s="1"/>
     </row>
-    <row r="687" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -29737,7 +29749,7 @@
       <c r="T687" s="1"/>
       <c r="U687" s="1"/>
     </row>
-    <row r="688" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -29760,7 +29772,7 @@
       <c r="T688" s="1"/>
       <c r="U688" s="1"/>
     </row>
-    <row r="689" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -29783,7 +29795,7 @@
       <c r="T689" s="1"/>
       <c r="U689" s="1"/>
     </row>
-    <row r="690" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -29806,7 +29818,7 @@
       <c r="T690" s="1"/>
       <c r="U690" s="1"/>
     </row>
-    <row r="691" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -29829,7 +29841,7 @@
       <c r="T691" s="1"/>
       <c r="U691" s="1"/>
     </row>
-    <row r="692" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -29852,7 +29864,7 @@
       <c r="T692" s="1"/>
       <c r="U692" s="1"/>
     </row>
-    <row r="693" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -29875,7 +29887,7 @@
       <c r="T693" s="1"/>
       <c r="U693" s="1"/>
     </row>
-    <row r="694" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -29898,7 +29910,7 @@
       <c r="T694" s="1"/>
       <c r="U694" s="1"/>
     </row>
-    <row r="695" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -29921,7 +29933,7 @@
       <c r="T695" s="1"/>
       <c r="U695" s="1"/>
     </row>
-    <row r="696" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -29944,7 +29956,7 @@
       <c r="T696" s="1"/>
       <c r="U696" s="1"/>
     </row>
-    <row r="697" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -29967,7 +29979,7 @@
       <c r="T697" s="1"/>
       <c r="U697" s="1"/>
     </row>
-    <row r="698" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -29990,7 +30002,7 @@
       <c r="T698" s="1"/>
       <c r="U698" s="1"/>
     </row>
-    <row r="699" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -30013,7 +30025,7 @@
       <c r="T699" s="1"/>
       <c r="U699" s="1"/>
     </row>
-    <row r="700" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -30036,7 +30048,7 @@
       <c r="T700" s="1"/>
       <c r="U700" s="1"/>
     </row>
-    <row r="701" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -30059,7 +30071,7 @@
       <c r="T701" s="1"/>
       <c r="U701" s="1"/>
     </row>
-    <row r="702" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -30082,7 +30094,7 @@
       <c r="T702" s="1"/>
       <c r="U702" s="1"/>
     </row>
-    <row r="703" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -30105,7 +30117,7 @@
       <c r="T703" s="1"/>
       <c r="U703" s="1"/>
     </row>
-    <row r="704" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -30128,7 +30140,7 @@
       <c r="T704" s="1"/>
       <c r="U704" s="1"/>
     </row>
-    <row r="705" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -30151,7 +30163,7 @@
       <c r="T705" s="1"/>
       <c r="U705" s="1"/>
     </row>
-    <row r="706" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -30174,7 +30186,7 @@
       <c r="T706" s="1"/>
       <c r="U706" s="1"/>
     </row>
-    <row r="707" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -30197,7 +30209,7 @@
       <c r="T707" s="1"/>
       <c r="U707" s="1"/>
     </row>
-    <row r="708" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -30220,7 +30232,7 @@
       <c r="T708" s="1"/>
       <c r="U708" s="1"/>
     </row>
-    <row r="709" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -30243,7 +30255,7 @@
       <c r="T709" s="1"/>
       <c r="U709" s="1"/>
     </row>
-    <row r="710" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -30266,7 +30278,7 @@
       <c r="T710" s="1"/>
       <c r="U710" s="1"/>
     </row>
-    <row r="711" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -30289,7 +30301,7 @@
       <c r="T711" s="1"/>
       <c r="U711" s="1"/>
     </row>
-    <row r="712" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -30312,7 +30324,7 @@
       <c r="T712" s="1"/>
       <c r="U712" s="1"/>
     </row>
-    <row r="713" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -30335,7 +30347,7 @@
       <c r="T713" s="1"/>
       <c r="U713" s="1"/>
     </row>
-    <row r="714" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -30358,7 +30370,7 @@
       <c r="T714" s="1"/>
       <c r="U714" s="1"/>
     </row>
-    <row r="715" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -30381,7 +30393,7 @@
       <c r="T715" s="1"/>
       <c r="U715" s="1"/>
     </row>
-    <row r="716" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -30404,7 +30416,7 @@
       <c r="T716" s="1"/>
       <c r="U716" s="1"/>
     </row>
-    <row r="717" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -30427,7 +30439,7 @@
       <c r="T717" s="1"/>
       <c r="U717" s="1"/>
     </row>
-    <row r="718" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -30450,7 +30462,7 @@
       <c r="T718" s="1"/>
       <c r="U718" s="1"/>
     </row>
-    <row r="719" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -30473,7 +30485,7 @@
       <c r="T719" s="1"/>
       <c r="U719" s="1"/>
     </row>
-    <row r="720" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -30496,7 +30508,7 @@
       <c r="T720" s="1"/>
       <c r="U720" s="1"/>
     </row>
-    <row r="721" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -30519,7 +30531,7 @@
       <c r="T721" s="1"/>
       <c r="U721" s="1"/>
     </row>
-    <row r="722" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -30542,7 +30554,7 @@
       <c r="T722" s="1"/>
       <c r="U722" s="1"/>
     </row>
-    <row r="723" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -30565,7 +30577,7 @@
       <c r="T723" s="1"/>
       <c r="U723" s="1"/>
     </row>
-    <row r="724" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -30588,7 +30600,7 @@
       <c r="T724" s="1"/>
       <c r="U724" s="1"/>
     </row>
-    <row r="725" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -30611,7 +30623,7 @@
       <c r="T725" s="1"/>
       <c r="U725" s="1"/>
     </row>
-    <row r="726" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -30634,7 +30646,7 @@
       <c r="T726" s="1"/>
       <c r="U726" s="1"/>
     </row>
-    <row r="727" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -30657,7 +30669,7 @@
       <c r="T727" s="1"/>
       <c r="U727" s="1"/>
     </row>
-    <row r="728" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -30680,7 +30692,7 @@
       <c r="T728" s="1"/>
       <c r="U728" s="1"/>
     </row>
-    <row r="729" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -30703,7 +30715,7 @@
       <c r="T729" s="1"/>
       <c r="U729" s="1"/>
     </row>
-    <row r="730" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -30726,7 +30738,7 @@
       <c r="T730" s="1"/>
       <c r="U730" s="1"/>
     </row>
-    <row r="731" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -30749,7 +30761,7 @@
       <c r="T731" s="1"/>
       <c r="U731" s="1"/>
     </row>
-    <row r="732" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -30772,7 +30784,7 @@
       <c r="T732" s="1"/>
       <c r="U732" s="1"/>
     </row>
-    <row r="733" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -30795,7 +30807,7 @@
       <c r="T733" s="1"/>
       <c r="U733" s="1"/>
     </row>
-    <row r="734" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -30818,7 +30830,7 @@
       <c r="T734" s="1"/>
       <c r="U734" s="1"/>
     </row>
-    <row r="735" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -30841,7 +30853,7 @@
       <c r="T735" s="1"/>
       <c r="U735" s="1"/>
     </row>
-    <row r="736" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -30864,7 +30876,7 @@
       <c r="T736" s="1"/>
       <c r="U736" s="1"/>
     </row>
-    <row r="737" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -30887,7 +30899,7 @@
       <c r="T737" s="1"/>
       <c r="U737" s="1"/>
     </row>
-    <row r="738" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -30910,7 +30922,7 @@
       <c r="T738" s="1"/>
       <c r="U738" s="1"/>
     </row>
-    <row r="739" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -30933,7 +30945,7 @@
       <c r="T739" s="1"/>
       <c r="U739" s="1"/>
     </row>
-    <row r="740" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -30956,7 +30968,7 @@
       <c r="T740" s="1"/>
       <c r="U740" s="1"/>
     </row>
-    <row r="741" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -30979,7 +30991,7 @@
       <c r="T741" s="1"/>
       <c r="U741" s="1"/>
     </row>
-    <row r="742" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -31002,7 +31014,7 @@
       <c r="T742" s="1"/>
       <c r="U742" s="1"/>
     </row>
-    <row r="743" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -31025,7 +31037,7 @@
       <c r="T743" s="1"/>
       <c r="U743" s="1"/>
     </row>
-    <row r="744" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -31048,7 +31060,7 @@
       <c r="T744" s="1"/>
       <c r="U744" s="1"/>
     </row>
-    <row r="745" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -31071,7 +31083,7 @@
       <c r="T745" s="1"/>
       <c r="U745" s="1"/>
     </row>
-    <row r="746" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -31094,7 +31106,7 @@
       <c r="T746" s="1"/>
       <c r="U746" s="1"/>
     </row>
-    <row r="747" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -31117,7 +31129,7 @@
       <c r="T747" s="1"/>
       <c r="U747" s="1"/>
     </row>
-    <row r="748" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -31140,7 +31152,7 @@
       <c r="T748" s="1"/>
       <c r="U748" s="1"/>
     </row>
-    <row r="749" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -31163,7 +31175,7 @@
       <c r="T749" s="1"/>
       <c r="U749" s="1"/>
     </row>
-    <row r="750" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -31186,7 +31198,7 @@
       <c r="T750" s="1"/>
       <c r="U750" s="1"/>
     </row>
-    <row r="751" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -31209,7 +31221,7 @@
       <c r="T751" s="1"/>
       <c r="U751" s="1"/>
     </row>
-    <row r="752" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -31232,7 +31244,7 @@
       <c r="T752" s="1"/>
       <c r="U752" s="1"/>
     </row>
-    <row r="753" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -31255,7 +31267,7 @@
       <c r="T753" s="1"/>
       <c r="U753" s="1"/>
     </row>
-    <row r="754" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -31278,7 +31290,7 @@
       <c r="T754" s="1"/>
       <c r="U754" s="1"/>
     </row>
-    <row r="755" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -31301,7 +31313,7 @@
       <c r="T755" s="1"/>
       <c r="U755" s="1"/>
     </row>
-    <row r="756" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -31324,7 +31336,7 @@
       <c r="T756" s="1"/>
       <c r="U756" s="1"/>
     </row>
-    <row r="757" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -31347,7 +31359,7 @@
       <c r="T757" s="1"/>
       <c r="U757" s="1"/>
     </row>
-    <row r="758" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -31370,7 +31382,7 @@
       <c r="T758" s="1"/>
       <c r="U758" s="1"/>
     </row>
-    <row r="759" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -31393,7 +31405,7 @@
       <c r="T759" s="1"/>
       <c r="U759" s="1"/>
     </row>
-    <row r="760" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -31416,7 +31428,7 @@
       <c r="T760" s="1"/>
       <c r="U760" s="1"/>
     </row>
-    <row r="761" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -31439,7 +31451,7 @@
       <c r="T761" s="1"/>
       <c r="U761" s="1"/>
     </row>
-    <row r="762" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -31462,7 +31474,7 @@
       <c r="T762" s="1"/>
       <c r="U762" s="1"/>
     </row>
-    <row r="763" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -31485,7 +31497,7 @@
       <c r="T763" s="1"/>
       <c r="U763" s="1"/>
     </row>
-    <row r="764" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -31508,7 +31520,7 @@
       <c r="T764" s="1"/>
       <c r="U764" s="1"/>
     </row>
-    <row r="765" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -31531,7 +31543,7 @@
       <c r="T765" s="1"/>
       <c r="U765" s="1"/>
     </row>
-    <row r="766" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -31554,7 +31566,7 @@
       <c r="T766" s="1"/>
       <c r="U766" s="1"/>
     </row>
-    <row r="767" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -31577,7 +31589,7 @@
       <c r="T767" s="1"/>
       <c r="U767" s="1"/>
     </row>
-    <row r="768" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -31600,7 +31612,7 @@
       <c r="T768" s="1"/>
       <c r="U768" s="1"/>
     </row>
-    <row r="769" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -31623,7 +31635,7 @@
       <c r="T769" s="1"/>
       <c r="U769" s="1"/>
     </row>
-    <row r="770" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -31646,7 +31658,7 @@
       <c r="T770" s="1"/>
       <c r="U770" s="1"/>
     </row>
-    <row r="771" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -31669,7 +31681,7 @@
       <c r="T771" s="1"/>
       <c r="U771" s="1"/>
     </row>
-    <row r="772" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -31692,7 +31704,7 @@
       <c r="T772" s="1"/>
       <c r="U772" s="1"/>
     </row>
-    <row r="773" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -31715,7 +31727,7 @@
       <c r="T773" s="1"/>
       <c r="U773" s="1"/>
     </row>
-    <row r="774" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -31738,7 +31750,7 @@
       <c r="T774" s="1"/>
       <c r="U774" s="1"/>
     </row>
-    <row r="775" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -31761,7 +31773,7 @@
       <c r="T775" s="1"/>
       <c r="U775" s="1"/>
     </row>
-    <row r="776" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -31784,7 +31796,7 @@
       <c r="T776" s="1"/>
       <c r="U776" s="1"/>
     </row>
-    <row r="777" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -31807,7 +31819,7 @@
       <c r="T777" s="1"/>
       <c r="U777" s="1"/>
     </row>
-    <row r="778" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -31830,7 +31842,7 @@
       <c r="T778" s="1"/>
       <c r="U778" s="1"/>
     </row>
-    <row r="779" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -31853,7 +31865,7 @@
       <c r="T779" s="1"/>
       <c r="U779" s="1"/>
     </row>
-    <row r="780" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -31876,7 +31888,7 @@
       <c r="T780" s="1"/>
       <c r="U780" s="1"/>
     </row>
-    <row r="781" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -31899,7 +31911,7 @@
       <c r="T781" s="1"/>
       <c r="U781" s="1"/>
     </row>
-    <row r="782" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -31922,7 +31934,7 @@
       <c r="T782" s="1"/>
       <c r="U782" s="1"/>
     </row>
-    <row r="783" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -31945,7 +31957,7 @@
       <c r="T783" s="1"/>
       <c r="U783" s="1"/>
     </row>
-    <row r="784" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -31968,7 +31980,7 @@
       <c r="T784" s="1"/>
       <c r="U784" s="1"/>
     </row>
-    <row r="785" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -31991,7 +32003,7 @@
       <c r="T785" s="1"/>
       <c r="U785" s="1"/>
     </row>
-    <row r="786" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -32014,7 +32026,7 @@
       <c r="T786" s="1"/>
       <c r="U786" s="1"/>
     </row>
-    <row r="787" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -32037,7 +32049,7 @@
       <c r="T787" s="1"/>
       <c r="U787" s="1"/>
     </row>
-    <row r="788" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -32060,7 +32072,7 @@
       <c r="T788" s="1"/>
       <c r="U788" s="1"/>
     </row>
-    <row r="789" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -32083,7 +32095,7 @@
       <c r="T789" s="1"/>
       <c r="U789" s="1"/>
     </row>
-    <row r="790" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -32106,7 +32118,7 @@
       <c r="T790" s="1"/>
       <c r="U790" s="1"/>
     </row>
-    <row r="791" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -32129,7 +32141,7 @@
       <c r="T791" s="1"/>
       <c r="U791" s="1"/>
     </row>
-    <row r="792" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -32152,7 +32164,7 @@
       <c r="T792" s="1"/>
       <c r="U792" s="1"/>
     </row>
-    <row r="793" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -32175,7 +32187,7 @@
       <c r="T793" s="1"/>
       <c r="U793" s="1"/>
     </row>
-    <row r="794" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -32198,7 +32210,7 @@
       <c r="T794" s="1"/>
       <c r="U794" s="1"/>
     </row>
-    <row r="795" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -32221,7 +32233,7 @@
       <c r="T795" s="1"/>
       <c r="U795" s="1"/>
     </row>
-    <row r="796" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -32244,7 +32256,7 @@
       <c r="T796" s="1"/>
       <c r="U796" s="1"/>
     </row>
-    <row r="797" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -32267,7 +32279,7 @@
       <c r="T797" s="1"/>
       <c r="U797" s="1"/>
     </row>
-    <row r="798" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -32290,7 +32302,7 @@
       <c r="T798" s="1"/>
       <c r="U798" s="1"/>
     </row>
-    <row r="799" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -32313,7 +32325,7 @@
       <c r="T799" s="1"/>
       <c r="U799" s="1"/>
     </row>
-    <row r="800" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -32336,7 +32348,7 @@
       <c r="T800" s="1"/>
       <c r="U800" s="1"/>
     </row>
-    <row r="801" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -32359,7 +32371,7 @@
       <c r="T801" s="1"/>
       <c r="U801" s="1"/>
     </row>
-    <row r="802" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -32382,7 +32394,7 @@
       <c r="T802" s="1"/>
       <c r="U802" s="1"/>
     </row>
-    <row r="803" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -32405,7 +32417,7 @@
       <c r="T803" s="1"/>
       <c r="U803" s="1"/>
     </row>
-    <row r="804" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -32428,7 +32440,7 @@
       <c r="T804" s="1"/>
       <c r="U804" s="1"/>
     </row>
-    <row r="805" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -32451,7 +32463,7 @@
       <c r="T805" s="1"/>
       <c r="U805" s="1"/>
     </row>
-    <row r="806" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -32474,7 +32486,7 @@
       <c r="T806" s="1"/>
       <c r="U806" s="1"/>
     </row>
-    <row r="807" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -32497,7 +32509,7 @@
       <c r="T807" s="1"/>
       <c r="U807" s="1"/>
     </row>
-    <row r="808" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -32520,7 +32532,7 @@
       <c r="T808" s="1"/>
       <c r="U808" s="1"/>
     </row>
-    <row r="809" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -32543,7 +32555,7 @@
       <c r="T809" s="1"/>
       <c r="U809" s="1"/>
     </row>
-    <row r="810" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -32566,7 +32578,7 @@
       <c r="T810" s="1"/>
       <c r="U810" s="1"/>
     </row>
-    <row r="811" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -32589,7 +32601,7 @@
       <c r="T811" s="1"/>
       <c r="U811" s="1"/>
     </row>
-    <row r="812" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -32612,7 +32624,7 @@
       <c r="T812" s="1"/>
       <c r="U812" s="1"/>
     </row>
-    <row r="813" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -32635,7 +32647,7 @@
       <c r="T813" s="1"/>
       <c r="U813" s="1"/>
     </row>
-    <row r="814" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -32658,7 +32670,7 @@
       <c r="T814" s="1"/>
       <c r="U814" s="1"/>
     </row>
-    <row r="815" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -32681,7 +32693,7 @@
       <c r="T815" s="1"/>
       <c r="U815" s="1"/>
     </row>
-    <row r="816" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -32704,7 +32716,7 @@
       <c r="T816" s="1"/>
       <c r="U816" s="1"/>
     </row>
-    <row r="817" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -32727,7 +32739,7 @@
       <c r="T817" s="1"/>
       <c r="U817" s="1"/>
     </row>
-    <row r="818" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -32750,7 +32762,7 @@
       <c r="T818" s="1"/>
       <c r="U818" s="1"/>
     </row>
-    <row r="819" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -32773,7 +32785,7 @@
       <c r="T819" s="1"/>
       <c r="U819" s="1"/>
     </row>
-    <row r="820" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -32796,7 +32808,7 @@
       <c r="T820" s="1"/>
       <c r="U820" s="1"/>
     </row>
-    <row r="821" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -32819,7 +32831,7 @@
       <c r="T821" s="1"/>
       <c r="U821" s="1"/>
     </row>
-    <row r="822" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -32842,7 +32854,7 @@
       <c r="T822" s="1"/>
       <c r="U822" s="1"/>
     </row>
-    <row r="823" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -32865,7 +32877,7 @@
       <c r="T823" s="1"/>
       <c r="U823" s="1"/>
     </row>
-    <row r="824" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -32888,7 +32900,7 @@
       <c r="T824" s="1"/>
       <c r="U824" s="1"/>
     </row>
-    <row r="825" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -32911,7 +32923,7 @@
       <c r="T825" s="1"/>
       <c r="U825" s="1"/>
     </row>
-    <row r="826" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -32934,7 +32946,7 @@
       <c r="T826" s="1"/>
       <c r="U826" s="1"/>
     </row>
-    <row r="827" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -32957,7 +32969,7 @@
       <c r="T827" s="1"/>
       <c r="U827" s="1"/>
     </row>
-    <row r="828" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -32980,7 +32992,7 @@
       <c r="T828" s="1"/>
       <c r="U828" s="1"/>
     </row>
-    <row r="829" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -33003,7 +33015,7 @@
       <c r="T829" s="1"/>
       <c r="U829" s="1"/>
     </row>
-    <row r="830" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -33026,7 +33038,7 @@
       <c r="T830" s="1"/>
       <c r="U830" s="1"/>
     </row>
-    <row r="831" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -33049,7 +33061,7 @@
       <c r="T831" s="1"/>
       <c r="U831" s="1"/>
     </row>
-    <row r="832" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -33072,7 +33084,7 @@
       <c r="T832" s="1"/>
       <c r="U832" s="1"/>
     </row>
-    <row r="833" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -33095,7 +33107,7 @@
       <c r="T833" s="1"/>
       <c r="U833" s="1"/>
     </row>
-    <row r="834" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -33118,7 +33130,7 @@
       <c r="T834" s="1"/>
       <c r="U834" s="1"/>
     </row>
-    <row r="835" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -33141,7 +33153,7 @@
       <c r="T835" s="1"/>
       <c r="U835" s="1"/>
     </row>
-    <row r="836" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -33164,7 +33176,7 @@
       <c r="T836" s="1"/>
       <c r="U836" s="1"/>
     </row>
-    <row r="837" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -33187,7 +33199,7 @@
       <c r="T837" s="1"/>
       <c r="U837" s="1"/>
     </row>
-    <row r="838" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -33210,7 +33222,7 @@
       <c r="T838" s="1"/>
       <c r="U838" s="1"/>
     </row>
-    <row r="839" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -33233,7 +33245,7 @@
       <c r="T839" s="1"/>
       <c r="U839" s="1"/>
     </row>
-    <row r="840" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -33256,7 +33268,7 @@
       <c r="T840" s="1"/>
       <c r="U840" s="1"/>
     </row>
-    <row r="841" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -33279,7 +33291,7 @@
       <c r="T841" s="1"/>
       <c r="U841" s="1"/>
     </row>
-    <row r="842" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -33302,7 +33314,7 @@
       <c r="T842" s="1"/>
       <c r="U842" s="1"/>
     </row>
-    <row r="843" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -33325,7 +33337,7 @@
       <c r="T843" s="1"/>
       <c r="U843" s="1"/>
     </row>
-    <row r="844" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -33348,7 +33360,7 @@
       <c r="T844" s="1"/>
       <c r="U844" s="1"/>
     </row>
-    <row r="845" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -33371,7 +33383,7 @@
       <c r="T845" s="1"/>
       <c r="U845" s="1"/>
     </row>
-    <row r="846" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -33394,7 +33406,7 @@
       <c r="T846" s="1"/>
       <c r="U846" s="1"/>
     </row>
-    <row r="847" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -33417,7 +33429,7 @@
       <c r="T847" s="1"/>
       <c r="U847" s="1"/>
     </row>
-    <row r="848" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -33440,7 +33452,7 @@
       <c r="T848" s="1"/>
       <c r="U848" s="1"/>
     </row>
-    <row r="849" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -33463,7 +33475,7 @@
       <c r="T849" s="1"/>
       <c r="U849" s="1"/>
     </row>
-    <row r="850" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -33486,7 +33498,7 @@
       <c r="T850" s="1"/>
       <c r="U850" s="1"/>
     </row>
-    <row r="851" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -33509,7 +33521,7 @@
       <c r="T851" s="1"/>
       <c r="U851" s="1"/>
     </row>
-    <row r="852" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -33532,7 +33544,7 @@
       <c r="T852" s="1"/>
       <c r="U852" s="1"/>
     </row>
-    <row r="853" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -33555,7 +33567,7 @@
       <c r="T853" s="1"/>
       <c r="U853" s="1"/>
     </row>
-    <row r="854" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -33578,7 +33590,7 @@
       <c r="T854" s="1"/>
       <c r="U854" s="1"/>
     </row>
-    <row r="855" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -33601,7 +33613,7 @@
       <c r="T855" s="1"/>
       <c r="U855" s="1"/>
     </row>
-    <row r="856" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -33624,7 +33636,7 @@
       <c r="T856" s="1"/>
       <c r="U856" s="1"/>
     </row>
-    <row r="857" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -33647,7 +33659,7 @@
       <c r="T857" s="1"/>
       <c r="U857" s="1"/>
     </row>
-    <row r="858" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -33670,7 +33682,7 @@
       <c r="T858" s="1"/>
       <c r="U858" s="1"/>
     </row>
-    <row r="859" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -33693,7 +33705,7 @@
       <c r="T859" s="1"/>
       <c r="U859" s="1"/>
     </row>
-    <row r="860" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -33716,7 +33728,7 @@
       <c r="T860" s="1"/>
       <c r="U860" s="1"/>
     </row>
-    <row r="861" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -33739,7 +33751,7 @@
       <c r="T861" s="1"/>
       <c r="U861" s="1"/>
     </row>
-    <row r="862" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -33762,7 +33774,7 @@
       <c r="T862" s="1"/>
       <c r="U862" s="1"/>
     </row>
-    <row r="863" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -33785,7 +33797,7 @@
       <c r="T863" s="1"/>
       <c r="U863" s="1"/>
     </row>
-    <row r="864" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -33808,7 +33820,7 @@
       <c r="T864" s="1"/>
       <c r="U864" s="1"/>
     </row>
-    <row r="865" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -33831,7 +33843,7 @@
       <c r="T865" s="1"/>
       <c r="U865" s="1"/>
     </row>
-    <row r="866" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -33854,7 +33866,7 @@
       <c r="T866" s="1"/>
       <c r="U866" s="1"/>
     </row>
-    <row r="867" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -33877,7 +33889,7 @@
       <c r="T867" s="1"/>
       <c r="U867" s="1"/>
     </row>
-    <row r="868" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -33900,7 +33912,7 @@
       <c r="T868" s="1"/>
       <c r="U868" s="1"/>
     </row>
-    <row r="869" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -33923,7 +33935,7 @@
       <c r="T869" s="1"/>
       <c r="U869" s="1"/>
     </row>
-    <row r="870" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -33946,7 +33958,7 @@
       <c r="T870" s="1"/>
       <c r="U870" s="1"/>
     </row>
-    <row r="871" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -33969,7 +33981,7 @@
       <c r="T871" s="1"/>
       <c r="U871" s="1"/>
     </row>
-    <row r="872" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -33992,7 +34004,7 @@
       <c r="T872" s="1"/>
       <c r="U872" s="1"/>
     </row>
-    <row r="873" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -34015,7 +34027,7 @@
       <c r="T873" s="1"/>
       <c r="U873" s="1"/>
     </row>
-    <row r="874" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -34038,7 +34050,7 @@
       <c r="T874" s="1"/>
       <c r="U874" s="1"/>
     </row>
-    <row r="875" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -34061,7 +34073,7 @@
       <c r="T875" s="1"/>
       <c r="U875" s="1"/>
     </row>
-    <row r="876" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -34084,7 +34096,7 @@
       <c r="T876" s="1"/>
       <c r="U876" s="1"/>
     </row>
-    <row r="877" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -34107,7 +34119,7 @@
       <c r="T877" s="1"/>
       <c r="U877" s="1"/>
     </row>
-    <row r="878" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -34130,7 +34142,7 @@
       <c r="T878" s="1"/>
       <c r="U878" s="1"/>
     </row>
-    <row r="879" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -34153,7 +34165,7 @@
       <c r="T879" s="1"/>
       <c r="U879" s="1"/>
     </row>
-    <row r="880" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -34176,7 +34188,7 @@
       <c r="T880" s="1"/>
       <c r="U880" s="1"/>
     </row>
-    <row r="881" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -34199,7 +34211,7 @@
       <c r="T881" s="1"/>
       <c r="U881" s="1"/>
     </row>
-    <row r="882" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -34222,7 +34234,7 @@
       <c r="T882" s="1"/>
       <c r="U882" s="1"/>
     </row>
-    <row r="883" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -34245,7 +34257,7 @@
       <c r="T883" s="1"/>
       <c r="U883" s="1"/>
     </row>
-    <row r="884" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -34268,7 +34280,7 @@
       <c r="T884" s="1"/>
       <c r="U884" s="1"/>
     </row>
-    <row r="885" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -34291,7 +34303,7 @@
       <c r="T885" s="1"/>
       <c r="U885" s="1"/>
     </row>
-    <row r="886" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -34314,7 +34326,7 @@
       <c r="T886" s="1"/>
       <c r="U886" s="1"/>
     </row>
-    <row r="887" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -34337,7 +34349,7 @@
       <c r="T887" s="1"/>
       <c r="U887" s="1"/>
     </row>
-    <row r="888" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -34360,7 +34372,7 @@
       <c r="T888" s="1"/>
       <c r="U888" s="1"/>
     </row>
-    <row r="889" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -34383,7 +34395,7 @@
       <c r="T889" s="1"/>
       <c r="U889" s="1"/>
     </row>
-    <row r="890" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -34406,7 +34418,7 @@
       <c r="T890" s="1"/>
       <c r="U890" s="1"/>
     </row>
-    <row r="891" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -34429,7 +34441,7 @@
       <c r="T891" s="1"/>
       <c r="U891" s="1"/>
     </row>
-    <row r="892" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -34452,7 +34464,7 @@
       <c r="T892" s="1"/>
       <c r="U892" s="1"/>
     </row>
-    <row r="893" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -34475,7 +34487,7 @@
       <c r="T893" s="1"/>
       <c r="U893" s="1"/>
     </row>
-    <row r="894" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -34498,7 +34510,7 @@
       <c r="T894" s="1"/>
       <c r="U894" s="1"/>
     </row>
-    <row r="895" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -34521,7 +34533,7 @@
       <c r="T895" s="1"/>
       <c r="U895" s="1"/>
     </row>
-    <row r="896" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -34544,7 +34556,7 @@
       <c r="T896" s="1"/>
       <c r="U896" s="1"/>
     </row>
-    <row r="897" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -34567,7 +34579,7 @@
       <c r="T897" s="1"/>
       <c r="U897" s="1"/>
     </row>
-    <row r="898" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -34590,7 +34602,7 @@
       <c r="T898" s="1"/>
       <c r="U898" s="1"/>
     </row>
-    <row r="899" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -34613,7 +34625,7 @@
       <c r="T899" s="1"/>
       <c r="U899" s="1"/>
     </row>
-    <row r="900" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -34636,7 +34648,7 @@
       <c r="T900" s="1"/>
       <c r="U900" s="1"/>
     </row>
-    <row r="901" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -34659,7 +34671,7 @@
       <c r="T901" s="1"/>
       <c r="U901" s="1"/>
     </row>
-    <row r="902" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -34682,7 +34694,7 @@
       <c r="T902" s="1"/>
       <c r="U902" s="1"/>
     </row>
-    <row r="903" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -34705,7 +34717,7 @@
       <c r="T903" s="1"/>
       <c r="U903" s="1"/>
     </row>
-    <row r="904" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -34728,7 +34740,7 @@
       <c r="T904" s="1"/>
       <c r="U904" s="1"/>
     </row>
-    <row r="905" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -34751,7 +34763,7 @@
       <c r="T905" s="1"/>
       <c r="U905" s="1"/>
     </row>
-    <row r="906" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -34774,7 +34786,7 @@
       <c r="T906" s="1"/>
       <c r="U906" s="1"/>
     </row>
-    <row r="907" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -34797,7 +34809,7 @@
       <c r="T907" s="1"/>
       <c r="U907" s="1"/>
     </row>
-    <row r="908" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -34820,7 +34832,7 @@
       <c r="T908" s="1"/>
       <c r="U908" s="1"/>
     </row>
-    <row r="909" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -34843,7 +34855,7 @@
       <c r="T909" s="1"/>
       <c r="U909" s="1"/>
     </row>
-    <row r="910" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -34866,7 +34878,7 @@
       <c r="T910" s="1"/>
       <c r="U910" s="1"/>
     </row>
-    <row r="911" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -34889,7 +34901,7 @@
       <c r="T911" s="1"/>
       <c r="U911" s="1"/>
     </row>
-    <row r="912" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -34912,7 +34924,7 @@
       <c r="T912" s="1"/>
       <c r="U912" s="1"/>
     </row>
-    <row r="913" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -34935,7 +34947,7 @@
       <c r="T913" s="1"/>
       <c r="U913" s="1"/>
     </row>
-    <row r="914" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -34958,7 +34970,7 @@
       <c r="T914" s="1"/>
       <c r="U914" s="1"/>
     </row>
-    <row r="915" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -34981,7 +34993,7 @@
       <c r="T915" s="1"/>
       <c r="U915" s="1"/>
     </row>
-    <row r="916" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -35004,7 +35016,7 @@
       <c r="T916" s="1"/>
       <c r="U916" s="1"/>
     </row>
-    <row r="917" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -35027,7 +35039,7 @@
       <c r="T917" s="1"/>
       <c r="U917" s="1"/>
     </row>
-    <row r="918" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -35050,7 +35062,7 @@
       <c r="T918" s="1"/>
       <c r="U918" s="1"/>
     </row>
-    <row r="919" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -35073,7 +35085,7 @@
       <c r="T919" s="1"/>
       <c r="U919" s="1"/>
     </row>
-    <row r="920" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -35096,7 +35108,7 @@
       <c r="T920" s="1"/>
       <c r="U920" s="1"/>
     </row>
-    <row r="921" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -35119,7 +35131,7 @@
       <c r="T921" s="1"/>
       <c r="U921" s="1"/>
     </row>
-    <row r="922" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -35142,7 +35154,7 @@
       <c r="T922" s="1"/>
       <c r="U922" s="1"/>
     </row>
-    <row r="923" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -35165,7 +35177,7 @@
       <c r="T923" s="1"/>
       <c r="U923" s="1"/>
     </row>
-    <row r="924" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -35188,7 +35200,7 @@
       <c r="T924" s="1"/>
       <c r="U924" s="1"/>
     </row>
-    <row r="925" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -35211,7 +35223,7 @@
       <c r="T925" s="1"/>
       <c r="U925" s="1"/>
     </row>
-    <row r="926" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -35234,7 +35246,7 @@
       <c r="T926" s="1"/>
       <c r="U926" s="1"/>
     </row>
-    <row r="927" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -35257,7 +35269,7 @@
       <c r="T927" s="1"/>
       <c r="U927" s="1"/>
     </row>
-    <row r="928" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -35280,7 +35292,7 @@
       <c r="T928" s="1"/>
       <c r="U928" s="1"/>
     </row>
-    <row r="929" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -35303,7 +35315,7 @@
       <c r="T929" s="1"/>
       <c r="U929" s="1"/>
     </row>
-    <row r="930" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -35326,7 +35338,7 @@
       <c r="T930" s="1"/>
       <c r="U930" s="1"/>
     </row>
-    <row r="931" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -35349,7 +35361,7 @@
       <c r="T931" s="1"/>
       <c r="U931" s="1"/>
     </row>
-    <row r="932" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -35372,7 +35384,7 @@
       <c r="T932" s="1"/>
       <c r="U932" s="1"/>
     </row>
-    <row r="933" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -35395,7 +35407,7 @@
       <c r="T933" s="1"/>
       <c r="U933" s="1"/>
     </row>
-    <row r="934" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -35418,7 +35430,7 @@
       <c r="T934" s="1"/>
       <c r="U934" s="1"/>
     </row>
-    <row r="935" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -35441,7 +35453,7 @@
       <c r="T935" s="1"/>
       <c r="U935" s="1"/>
     </row>
-    <row r="936" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -35464,7 +35476,7 @@
       <c r="T936" s="1"/>
       <c r="U936" s="1"/>
     </row>
-    <row r="937" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -35487,7 +35499,7 @@
       <c r="T937" s="1"/>
       <c r="U937" s="1"/>
     </row>
-    <row r="938" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -35510,7 +35522,7 @@
       <c r="T938" s="1"/>
       <c r="U938" s="1"/>
     </row>
-    <row r="939" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -35533,7 +35545,7 @@
       <c r="T939" s="1"/>
       <c r="U939" s="1"/>
     </row>
-    <row r="940" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -35556,7 +35568,7 @@
       <c r="T940" s="1"/>
       <c r="U940" s="1"/>
     </row>
-    <row r="941" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -35579,7 +35591,7 @@
       <c r="T941" s="1"/>
       <c r="U941" s="1"/>
     </row>
-    <row r="942" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -35602,7 +35614,7 @@
       <c r="T942" s="1"/>
       <c r="U942" s="1"/>
     </row>
-    <row r="943" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -35625,7 +35637,7 @@
       <c r="T943" s="1"/>
       <c r="U943" s="1"/>
     </row>
-    <row r="944" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -35648,7 +35660,7 @@
       <c r="T944" s="1"/>
       <c r="U944" s="1"/>
     </row>
-    <row r="945" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -35671,7 +35683,7 @@
       <c r="T945" s="1"/>
       <c r="U945" s="1"/>
     </row>
-    <row r="946" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -35694,7 +35706,7 @@
       <c r="T946" s="1"/>
       <c r="U946" s="1"/>
     </row>
-    <row r="947" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -35717,7 +35729,7 @@
       <c r="T947" s="1"/>
       <c r="U947" s="1"/>
     </row>
-    <row r="948" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -35740,7 +35752,7 @@
       <c r="T948" s="1"/>
       <c r="U948" s="1"/>
     </row>
-    <row r="949" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -35763,7 +35775,7 @@
       <c r="T949" s="1"/>
       <c r="U949" s="1"/>
     </row>
-    <row r="950" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -35786,7 +35798,7 @@
       <c r="T950" s="1"/>
       <c r="U950" s="1"/>
     </row>
-    <row r="951" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -35809,7 +35821,7 @@
       <c r="T951" s="1"/>
       <c r="U951" s="1"/>
     </row>
-    <row r="952" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -35832,7 +35844,7 @@
       <c r="T952" s="1"/>
       <c r="U952" s="1"/>
     </row>
-    <row r="953" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -35855,7 +35867,7 @@
       <c r="T953" s="1"/>
       <c r="U953" s="1"/>
     </row>
-    <row r="954" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -35878,7 +35890,7 @@
       <c r="T954" s="1"/>
       <c r="U954" s="1"/>
     </row>
-    <row r="955" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -35901,7 +35913,7 @@
       <c r="T955" s="1"/>
       <c r="U955" s="1"/>
     </row>
-    <row r="956" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -35924,7 +35936,7 @@
       <c r="T956" s="1"/>
       <c r="U956" s="1"/>
     </row>
-    <row r="957" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -35947,7 +35959,7 @@
       <c r="T957" s="1"/>
       <c r="U957" s="1"/>
     </row>
-    <row r="958" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -35970,7 +35982,7 @@
       <c r="T958" s="1"/>
       <c r="U958" s="1"/>
     </row>
-    <row r="959" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -35993,7 +36005,7 @@
       <c r="T959" s="1"/>
       <c r="U959" s="1"/>
     </row>
-    <row r="960" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -36016,7 +36028,7 @@
       <c r="T960" s="1"/>
       <c r="U960" s="1"/>
     </row>
-    <row r="961" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -36039,7 +36051,7 @@
       <c r="T961" s="1"/>
       <c r="U961" s="1"/>
     </row>
-    <row r="962" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -36062,7 +36074,7 @@
       <c r="T962" s="1"/>
       <c r="U962" s="1"/>
     </row>
-    <row r="963" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -36085,7 +36097,7 @@
       <c r="T963" s="1"/>
       <c r="U963" s="1"/>
     </row>
-    <row r="964" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -36108,7 +36120,7 @@
       <c r="T964" s="1"/>
       <c r="U964" s="1"/>
     </row>
-    <row r="965" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -36131,7 +36143,7 @@
       <c r="T965" s="1"/>
       <c r="U965" s="1"/>
     </row>
-    <row r="966" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -36154,7 +36166,7 @@
       <c r="T966" s="1"/>
       <c r="U966" s="1"/>
     </row>
-    <row r="967" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -36177,7 +36189,7 @@
       <c r="T967" s="1"/>
       <c r="U967" s="1"/>
     </row>
-    <row r="968" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -36200,7 +36212,7 @@
       <c r="T968" s="1"/>
       <c r="U968" s="1"/>
     </row>
-    <row r="969" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -36223,7 +36235,7 @@
       <c r="T969" s="1"/>
       <c r="U969" s="1"/>
     </row>
-    <row r="970" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -36246,7 +36258,7 @@
       <c r="T970" s="1"/>
       <c r="U970" s="1"/>
     </row>
-    <row r="971" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -36269,7 +36281,7 @@
       <c r="T971" s="1"/>
       <c r="U971" s="1"/>
     </row>
-    <row r="972" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -36292,7 +36304,7 @@
       <c r="T972" s="1"/>
       <c r="U972" s="1"/>
     </row>
-    <row r="973" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -36315,7 +36327,7 @@
       <c r="T973" s="1"/>
       <c r="U973" s="1"/>
     </row>
-    <row r="974" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -36338,7 +36350,7 @@
       <c r="T974" s="1"/>
       <c r="U974" s="1"/>
     </row>
-    <row r="975" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -36361,7 +36373,7 @@
       <c r="T975" s="1"/>
       <c r="U975" s="1"/>
     </row>
-    <row r="976" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -36384,7 +36396,7 @@
       <c r="T976" s="1"/>
       <c r="U976" s="1"/>
     </row>
-    <row r="977" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -36407,7 +36419,7 @@
       <c r="T977" s="1"/>
       <c r="U977" s="1"/>
     </row>
-    <row r="978" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -36430,7 +36442,7 @@
       <c r="T978" s="1"/>
       <c r="U978" s="1"/>
     </row>
-    <row r="979" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -36453,7 +36465,7 @@
       <c r="T979" s="1"/>
       <c r="U979" s="1"/>
     </row>
-    <row r="980" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -36476,7 +36488,7 @@
       <c r="T980" s="1"/>
       <c r="U980" s="1"/>
     </row>
-    <row r="981" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -36499,7 +36511,7 @@
       <c r="T981" s="1"/>
       <c r="U981" s="1"/>
     </row>
-    <row r="982" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -36522,7 +36534,7 @@
       <c r="T982" s="1"/>
       <c r="U982" s="1"/>
     </row>
-    <row r="983" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -36545,7 +36557,7 @@
       <c r="T983" s="1"/>
       <c r="U983" s="1"/>
     </row>
-    <row r="984" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -36568,7 +36580,7 @@
       <c r="T984" s="1"/>
       <c r="U984" s="1"/>
     </row>
-    <row r="985" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -36591,7 +36603,7 @@
       <c r="T985" s="1"/>
       <c r="U985" s="1"/>
     </row>
-    <row r="986" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -36614,7 +36626,7 @@
       <c r="T986" s="1"/>
       <c r="U986" s="1"/>
     </row>
-    <row r="987" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -36637,7 +36649,7 @@
       <c r="T987" s="1"/>
       <c r="U987" s="1"/>
     </row>
-    <row r="988" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -36660,7 +36672,7 @@
       <c r="T988" s="1"/>
       <c r="U988" s="1"/>
     </row>
-    <row r="989" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -36683,7 +36695,7 @@
       <c r="T989" s="1"/>
       <c r="U989" s="1"/>
     </row>
-    <row r="990" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -36706,7 +36718,7 @@
       <c r="T990" s="1"/>
       <c r="U990" s="1"/>
     </row>
-    <row r="991" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -36729,7 +36741,7 @@
       <c r="T991" s="1"/>
       <c r="U991" s="1"/>
     </row>
-    <row r="992" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -36752,7 +36764,7 @@
       <c r="T992" s="1"/>
       <c r="U992" s="1"/>
     </row>
-    <row r="993" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -36775,7 +36787,7 @@
       <c r="T993" s="1"/>
       <c r="U993" s="1"/>
     </row>
-    <row r="994" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -36798,7 +36810,7 @@
       <c r="T994" s="1"/>
       <c r="U994" s="1"/>
     </row>
-    <row r="995" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -36821,7 +36833,7 @@
       <c r="T995" s="1"/>
       <c r="U995" s="1"/>
     </row>
-    <row r="996" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -36844,7 +36856,7 @@
       <c r="T996" s="1"/>
       <c r="U996" s="1"/>
     </row>
-    <row r="997" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -36867,7 +36879,7 @@
       <c r="T997" s="1"/>
       <c r="U997" s="1"/>
     </row>
-    <row r="998" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -36890,7 +36902,7 @@
       <c r="T998" s="1"/>
       <c r="U998" s="1"/>
     </row>
-    <row r="999" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -36913,7 +36925,7 @@
       <c r="T999" s="1"/>
       <c r="U999" s="1"/>
     </row>
-    <row r="1000" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
